--- a/products/identity-personalization/personalization 2.0/Combine Profile and Account/Information architecture/Prof & Acct. — Content inventory and information architecture.xlsx
+++ b/products/identity-personalization/personalization 2.0/Combine Profile and Account/Information architecture/Prof & Acct. — Content inventory and information architecture.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vacostraus/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2678489-53EC-504E-A99F-4C3263CD7B5E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD694EBC-7DD2-6245-B595-5B0554148A99}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2180" yWindow="460" windowWidth="23340" windowHeight="14660" xr2:uid="{71A3B6E5-147C-D943-9295-451357BFED97}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25520" windowHeight="14660" activeTab="1" xr2:uid="{71A3B6E5-147C-D943-9295-451357BFED97}"/>
   </bookViews>
   <sheets>
     <sheet name="Oct. '19 Content Inventory" sheetId="1" r:id="rId1"/>
     <sheet name="eBenefits content" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="76">
   <si>
     <t>Editable?</t>
   </si>
@@ -220,25 +221,46 @@
     <t>User roles and relationships</t>
   </si>
   <si>
-    <t>Depending on what the flow to add/connect to a veteran will look like, this could either take place in the profile. If it's super complex, we could have user roles and relationships be view only and link out to the add/update flow.</t>
-  </si>
-  <si>
     <t>Specially Adapted Housing Grant</t>
   </si>
   <si>
-    <t>Ancillary Benefits</t>
-  </si>
-  <si>
     <t>Vocational Rehabilitation Benefits &amp; Counseling</t>
   </si>
   <si>
     <t>Servicemembers' Group Life Insurance (SGLI)</t>
   </si>
   <si>
-    <t>/////////////////////////</t>
-  </si>
-  <si>
-    <t>What kind of status information would we show? Does that belong in the profile?</t>
+    <t>View payment history</t>
+  </si>
+  <si>
+    <t>View only. Would link out to full tool.</t>
+  </si>
+  <si>
+    <t>View medical devices and equipment</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>For benefits, we should show what benefits someone has and related enrollment info.</t>
+  </si>
+  <si>
+    <t>View only list of previous orders. Would link out to tool for ordering new equipment.</t>
+  </si>
+  <si>
+    <t>Home loan certificate of eligibility (COE)</t>
+  </si>
+  <si>
+    <t>Depending on what the flow to add/connect to a veteran will look like, this could take place in the profile. If it's a complex process, we could list user roles and relationships and link out to the add/update flow.</t>
+  </si>
+  <si>
+    <t>Would show enrollment and related info (eg. date enrolled, etc.)</t>
+  </si>
+  <si>
+    <t>…plus any benefits for which we can access enrollment info</t>
+  </si>
+  <si>
+    <t>View only. Woould link to how this is calculated.</t>
   </si>
 </sst>
 </file>
@@ -323,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -345,6 +367,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -661,7 +684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA5596D-0DF4-7C49-B55A-E563ED51A2AA}">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -694,7 +717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="40" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -809,7 +832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" s="2" customFormat="1" ht="40" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
@@ -1089,16 +1112,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B964C80-B7A2-4E46-A6D8-CC20028EE4D9}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="45.6640625" customWidth="1"/>
-    <col min="2" max="2" width="57.83203125" customWidth="1"/>
+    <col min="2" max="2" width="79.83203125" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="28.6640625" customWidth="1"/>
   </cols>
@@ -1115,7 +1138,7 @@
     </row>
     <row r="3" spans="1:3" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>37</v>
@@ -1133,6 +1156,9 @@
       <c r="A5" s="10" t="s">
         <v>56</v>
       </c>
+      <c r="B5" s="10" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="6" spans="1:3" s="10" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
@@ -1150,50 +1176,76 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="10" customFormat="1" ht="100" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>61</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" s="10" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" s="10" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" s="10" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="C11" s="2"/>
+    </row>
+    <row r="13" spans="1:3" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="B14" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="B15" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>68</v>
+      <c r="B16" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/products/identity-personalization/personalization 2.0/Combine Profile and Account/Information architecture/Prof & Acct. — Content inventory and information architecture.xlsx
+++ b/products/identity-personalization/personalization 2.0/Combine Profile and Account/Information architecture/Prof & Acct. — Content inventory and information architecture.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vacostraus/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD694EBC-7DD2-6245-B595-5B0554148A99}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91413521-684A-C046-906F-6009C6E5CFF1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25520" windowHeight="14660" activeTab="1" xr2:uid="{71A3B6E5-147C-D943-9295-451357BFED97}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="25600" windowHeight="14660" activeTab="4" xr2:uid="{71A3B6E5-147C-D943-9295-451357BFED97}"/>
   </bookViews>
   <sheets>
     <sheet name="Oct. '19 Content Inventory" sheetId="1" r:id="rId1"/>
     <sheet name="eBenefits content" sheetId="2" r:id="rId2"/>
+    <sheet name="Proposed IA_Proposal 1" sheetId="3" r:id="rId3"/>
+    <sheet name="Proposed IA_Proposal 2" sheetId="4" r:id="rId4"/>
+    <sheet name="Proposed IA_Proposal 3" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="123">
   <si>
     <t>Editable?</t>
   </si>
@@ -261,13 +264,288 @@
   </si>
   <si>
     <t>View only. Woould link to how this is calculated.</t>
+  </si>
+  <si>
+    <t>Mailing Address</t>
+  </si>
+  <si>
+    <t>Home Address</t>
+  </si>
+  <si>
+    <t>FAQ: How do I update my contact information for other benefits?</t>
+  </si>
+  <si>
+    <t>FAQ: How do I update the email I use to sign in to VA.gov?</t>
+  </si>
+  <si>
+    <t>Personal Information (QUESTION: Should this be in some sort of editable banner at the top of the profile?)</t>
+  </si>
+  <si>
+    <t>Military Information</t>
+  </si>
+  <si>
+    <t>[Military branch(es)]</t>
+  </si>
+  <si>
+    <t>[Date(s) of service]</t>
+  </si>
+  <si>
+    <t>Disability [if applicable]</t>
+  </si>
+  <si>
+    <t>Health care [if applicable]</t>
+  </si>
+  <si>
+    <t>Enrollment info</t>
+  </si>
+  <si>
+    <t>etc…</t>
+  </si>
+  <si>
+    <t>[Additional benefits as applicable]</t>
+  </si>
+  <si>
+    <t>Direct deposit information</t>
+  </si>
+  <si>
+    <t>FAQ: How do I change my direct deposit information for GI Bill and other education benefits?</t>
+  </si>
+  <si>
+    <t>FAQ: What’s my bank’s routing number?</t>
+  </si>
+  <si>
+    <t>FAQ: How do I update my personal information?</t>
+  </si>
+  <si>
+    <t>FAQ: What if my military service information doesn't look right?</t>
+  </si>
+  <si>
+    <t>Verify your identity</t>
+  </si>
+  <si>
+    <t>Set up 2-factor authentication</t>
+  </si>
+  <si>
+    <t>Email &amp; password</t>
+  </si>
+  <si>
+    <t>Medical terms and conditions</t>
+  </si>
+  <si>
+    <t>Account settings</t>
+  </si>
+  <si>
+    <t>Connected accounts (Note: This section only shows for people who have connected accounts)</t>
+  </si>
+  <si>
+    <t>HEADER</t>
+  </si>
+  <si>
+    <t>Military branch</t>
+  </si>
+  <si>
+    <t>Military history</t>
+  </si>
+  <si>
+    <t>Contact information</t>
+  </si>
+  <si>
+    <t>Your Benefits</t>
+  </si>
+  <si>
+    <t>Your Benefits (hide if we can not detect benefits)</t>
+  </si>
+  <si>
+    <t>Connected accounts</t>
+  </si>
+  <si>
+    <t>Your Profile</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Payment history </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(future feature)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Total disability rating </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(future feature)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rated disabilities </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(future feature)</t>
+    </r>
+  </si>
+  <si>
+    <t>Direct deposit information for compensation (when we are able to reflect other disability information)</t>
+  </si>
+  <si>
+    <t>Payment history (future feature)</t>
+  </si>
+  <si>
+    <t>Payment history</t>
+  </si>
+  <si>
+    <t>Your payments (should this be by benefit?)</t>
+  </si>
+  <si>
+    <t>Your settings</t>
+  </si>
+  <si>
+    <t>Connected accounts (Note: this only shows for people who have connected accounts)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Notification preferences</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (for when there is more than one preference)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Text me health care appointment reminders </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(MVP placement until there are multiple notifcation preferences)</t>
+    </r>
+  </si>
+  <si>
+    <t>Personal Information (QUESTION: Should this be in some sort of editable banner at the top of the profile? OR this could be the default open section)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PROPOSAL 3 for [Profile &amp; Settings; My VA; Whatever] |</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="18"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Italics = future feature</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PROPOSAL 2 for [Profile &amp; Settings; My VA; Whatever] | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="18"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Italics = future feature</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PROPOSAL 1 for [Profile &amp; Settings; My VA; Whatever] | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="18"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Italics = future feature</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -306,8 +584,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -332,6 +644,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -345,7 +663,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -367,7 +685,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1114,8 +1438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B964C80-B7A2-4E46-A6D8-CC20028EE4D9}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1244,8 +1568,778 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="12" t="s">
         <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D4B681F-328E-8A49-8BF8-2C8D726B010E}">
+  <dimension ref="A1:B46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="13"/>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="13"/>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="13"/>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="13"/>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="13"/>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="13"/>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="13"/>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="13"/>
+      <c r="B11" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="13"/>
+      <c r="B12" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="13"/>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="13"/>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B16" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="13"/>
+      <c r="B18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="13"/>
+      <c r="B19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="13"/>
+      <c r="B20" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="13"/>
+      <c r="B23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="13"/>
+      <c r="B24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="13"/>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="13"/>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="13"/>
+      <c r="B33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="13"/>
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="13"/>
+      <c r="B35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="13"/>
+      <c r="B36" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="13"/>
+      <c r="B37" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="13"/>
+      <c r="B39" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="13"/>
+      <c r="B43" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="13"/>
+      <c r="B44" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="13"/>
+      <c r="B45" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{765BE9AA-DDCC-5B40-A3AB-A05A27C865F7}">
+  <dimension ref="A1:B41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="13"/>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="13"/>
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="13"/>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="13"/>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="13"/>
+      <c r="B7" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="13"/>
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="13"/>
+      <c r="B11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="13"/>
+      <c r="B14" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="13"/>
+      <c r="B15" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="13"/>
+      <c r="B22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="13"/>
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="13"/>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="13"/>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="13"/>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="13"/>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="13"/>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="13"/>
+      <c r="B29" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="13"/>
+      <c r="B30" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="13"/>
+      <c r="B32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="13"/>
+      <c r="B33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="13"/>
+      <c r="B34" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="13"/>
+      <c r="B38" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="13"/>
+      <c r="B39" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="13"/>
+      <c r="B40" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="13"/>
+      <c r="B41" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BF5BAA-D435-A24C-98B8-56DB67A65D3E}">
+  <dimension ref="A1:C47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="13"/>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="13"/>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="13"/>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="13"/>
+      <c r="B7" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="13"/>
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="13"/>
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="13"/>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="13"/>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="13"/>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="13"/>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="13"/>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="13"/>
+      <c r="B17" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="13"/>
+      <c r="B18" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="13"/>
+      <c r="B20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="13"/>
+      <c r="B21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="13"/>
+      <c r="B22" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="13"/>
+      <c r="B25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="13"/>
+      <c r="B26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="13"/>
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="13"/>
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="13"/>
+      <c r="B35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="13"/>
+      <c r="B36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="13"/>
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="13"/>
+      <c r="B38" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="13"/>
+      <c r="B39" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="13"/>
+      <c r="B41" s="15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="13"/>
+      <c r="B43" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="13"/>
+      <c r="B44" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="13"/>
+      <c r="B45" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="13"/>
+      <c r="B46" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="13"/>
+      <c r="B47" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/products/identity-personalization/personalization 2.0/Combine Profile and Account/Information architecture/Prof & Acct. — Content inventory and information architecture.xlsx
+++ b/products/identity-personalization/personalization 2.0/Combine Profile and Account/Information architecture/Prof & Acct. — Content inventory and information architecture.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vacostraus/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91413521-684A-C046-906F-6009C6E5CFF1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C0B5CF-8CC5-354A-83A3-9328CB7C60BF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="25600" windowHeight="14660" activeTab="4" xr2:uid="{71A3B6E5-147C-D943-9295-451357BFED97}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="25600" windowHeight="14660" activeTab="5" xr2:uid="{71A3B6E5-147C-D943-9295-451357BFED97}"/>
   </bookViews>
   <sheets>
     <sheet name="Oct. '19 Content Inventory" sheetId="1" r:id="rId1"/>
     <sheet name="eBenefits content" sheetId="2" r:id="rId2"/>
-    <sheet name="Proposed IA_Proposal 1" sheetId="3" r:id="rId3"/>
-    <sheet name="Proposed IA_Proposal 2" sheetId="4" r:id="rId4"/>
-    <sheet name="Proposed IA_Proposal 3" sheetId="6" r:id="rId5"/>
+    <sheet name="IA iteration 1" sheetId="3" r:id="rId3"/>
+    <sheet name="IA iteration 2" sheetId="4" r:id="rId4"/>
+    <sheet name="IA iteration 3" sheetId="6" r:id="rId5"/>
+    <sheet name="Iteration 4" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="147">
   <si>
     <t>Editable?</t>
   </si>
@@ -263,9 +263,6 @@
     <t>…plus any benefits for which we can access enrollment info</t>
   </si>
   <si>
-    <t>View only. Woould link to how this is calculated.</t>
-  </si>
-  <si>
     <t>Mailing Address</t>
   </si>
   <si>
@@ -333,9 +330,6 @@
   </si>
   <si>
     <t>Account settings</t>
-  </si>
-  <si>
-    <t>Connected accounts (Note: This section only shows for people who have connected accounts)</t>
   </si>
   <si>
     <t>HEADER</t>
@@ -428,9 +422,6 @@
   </si>
   <si>
     <t>Your settings</t>
-  </si>
-  <si>
-    <t>Connected accounts (Note: this only shows for people who have connected accounts)</t>
   </si>
   <si>
     <r>
@@ -540,12 +531,383 @@
       <t>Italics = future feature</t>
     </r>
   </si>
+  <si>
+    <t>View only. Would link to how this is calculated.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Connected accounts </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Note: this only shows for people who have connected accounts)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FAQ: How do I update the email I use to sign in to VA.gov? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>If we keep as FAQ, this should show links to DS Logon/MHV/ID.me. Or, we can show these links not hidden behind a FAQ.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Email &amp; password (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>should the links to DS logon/MHV/ID.me just be with Contact Information?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Verify your identity (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Do we need this to have a section since you won't even see the profile without it? Could potentially be a visual confirmation either in a header or side nav that they've verified</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Payment history </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>take a closer look at this in eBenefits</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Set up 2-factor authentication (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Is there any way to change this once it's set up? We don't surface a way in the UI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Your family &amp; caregivers </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>QUESTION: is this benefit agnostic or specific?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Dependents</t>
+  </si>
+  <si>
+    <t>POA/Representatives</t>
+  </si>
+  <si>
+    <t>Health care status (eg. enrolled, pending, not eligible)</t>
+  </si>
+  <si>
+    <t>You appled on:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Health care [if applicable] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>should we link out to messages or prescriptions? Leaning towards maybe for Rx, no for messages</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>You enrolled on:</t>
+  </si>
+  <si>
+    <t>Medical devices and equipment (?)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PROPOSAL 4 for [Profile &amp; Settings; My VA; Whatever] |</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="18"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Italics = future feature</t>
+    </r>
+  </si>
+  <si>
+    <t>✓ We've verified you (Maybe: FAQ about identity verification)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Connected accounts</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Note: this will only show if people have connected accounts)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Email </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FAQ: How do I update the email I use to sign in to VA.gov </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(would link to DS logon/MHV/ID.me)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Set up 2-factor authentication </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(maybe we can show this as a stamp or something once it's set up since there is nothing to edit?)</t>
+    </r>
+  </si>
+  <si>
+    <t>Military information</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Your Benefits </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>if no benefits, this could have some sort of blank state or we could hide it until there is data to show?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>MVP would be the following</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your Benefits </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health care [if applicable] </t>
+  </si>
+  <si>
+    <t>[Applications]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -618,8 +980,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -650,6 +1030,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -663,7 +1049,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -692,6 +1078,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1008,11 +1397,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA5596D-0DF4-7C49-B55A-E563ED51A2AA}">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="47.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.5" style="1" customWidth="1"/>
@@ -1020,17 +1409,17 @@
     <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="4" customFormat="1" ht="30" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="5" customFormat="1" ht="21" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
@@ -1041,7 +1430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="40">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -1052,7 +1441,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="20">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1063,7 +1452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="20">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1074,7 +1463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="20">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1085,7 +1474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="20">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1096,7 +1485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="20">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1107,7 +1496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="20">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -1118,7 +1507,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="20">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1129,7 +1518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="40">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -1140,12 +1529,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" s="4" customFormat="1" ht="30" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" s="5" customFormat="1" ht="21" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -1156,7 +1545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="2" customFormat="1" ht="40" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" s="2" customFormat="1" ht="40">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
@@ -1167,7 +1556,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="2" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" s="2" customFormat="1" ht="20">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
@@ -1178,7 +1567,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="2" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" s="2" customFormat="1" ht="20">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -1189,7 +1578,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="2" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" s="2" customFormat="1" ht="20">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -1200,7 +1589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="2" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" s="2" customFormat="1" ht="20">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -1211,12 +1600,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" s="4" customFormat="1" ht="30" customHeight="1">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" s="5" customFormat="1" ht="21" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>13</v>
       </c>
@@ -1227,7 +1616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="2" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" s="2" customFormat="1" ht="20">
       <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
@@ -1238,7 +1627,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="2" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" s="2" customFormat="1" ht="20">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
@@ -1249,7 +1638,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="2" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" s="2" customFormat="1" ht="20">
       <c r="A26" s="2" t="s">
         <v>28</v>
       </c>
@@ -1260,12 +1649,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" s="4" customFormat="1" ht="30" customHeight="1">
       <c r="A28" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" s="5" customFormat="1" ht="21" customHeight="1">
       <c r="A29" s="5" t="s">
         <v>13</v>
       </c>
@@ -1276,7 +1665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="40" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="40">
       <c r="A30" s="2" t="s">
         <v>31</v>
       </c>
@@ -1287,7 +1676,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="20">
       <c r="A31" s="2" t="s">
         <v>32</v>
       </c>
@@ -1298,12 +1687,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A33" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" s="5" customFormat="1" ht="21" customHeight="1">
       <c r="A34" s="5" t="s">
         <v>13</v>
       </c>
@@ -1314,7 +1703,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="2" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" s="2" customFormat="1" ht="20">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
@@ -1325,7 +1714,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="2" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" s="2" customFormat="1" ht="20">
       <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
@@ -1336,7 +1725,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="2" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" s="2" customFormat="1" ht="20">
       <c r="A37" s="2" t="s">
         <v>40</v>
       </c>
@@ -1344,7 +1733,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="2" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" s="2" customFormat="1" ht="20">
       <c r="A38" s="2" t="s">
         <v>41</v>
       </c>
@@ -1352,7 +1741,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="2" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" s="2" customFormat="1" ht="20">
       <c r="A39" s="2" t="s">
         <v>42</v>
       </c>
@@ -1360,7 +1749,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="2" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" s="2" customFormat="1" ht="20">
       <c r="A40" s="2" t="s">
         <v>43</v>
       </c>
@@ -1368,7 +1757,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="2" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" s="2" customFormat="1" ht="20">
       <c r="A41" s="2" t="s">
         <v>44</v>
       </c>
@@ -1379,7 +1768,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="2" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" s="2" customFormat="1" ht="20">
       <c r="A42" s="2" t="s">
         <v>46</v>
       </c>
@@ -1390,7 +1779,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="2" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" s="2" customFormat="1" ht="20">
       <c r="A43" s="2" t="s">
         <v>48</v>
       </c>
@@ -1401,13 +1790,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:3" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" s="2" customFormat="1" ht="19"/>
+    <row r="45" spans="1:3" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A45" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" s="5" customFormat="1" ht="21" customHeight="1">
       <c r="A46" s="5" t="s">
         <v>13</v>
       </c>
@@ -1418,7 +1807,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="2" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" s="2" customFormat="1" ht="20">
       <c r="A47" s="2" t="s">
         <v>53</v>
       </c>
@@ -1439,10 +1828,10 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="45.6640625" customWidth="1"/>
     <col min="2" max="2" width="79.83203125" customWidth="1"/>
@@ -1450,17 +1839,17 @@
     <col min="4" max="4" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="8" customFormat="1" ht="30" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="9" customFormat="1" ht="21" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>68</v>
       </c>
@@ -1468,7 +1857,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="10" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" s="10" customFormat="1" ht="19">
       <c r="A4" s="10" t="s">
         <v>55</v>
       </c>
@@ -1476,15 +1865,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="10" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" s="10" customFormat="1" ht="19">
       <c r="A5" s="10" t="s">
         <v>56</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="10" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="10" customFormat="1" ht="19">
       <c r="A6" s="10" t="s">
         <v>57</v>
       </c>
@@ -1492,7 +1881,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="10" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" s="10" customFormat="1" ht="19">
       <c r="A7" s="10" t="s">
         <v>59</v>
       </c>
@@ -1500,7 +1889,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" s="10" customFormat="1" ht="60">
       <c r="A8" s="10" t="s">
         <v>61</v>
       </c>
@@ -1509,7 +1898,7 @@
       </c>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" s="10" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" s="10" customFormat="1" ht="19">
       <c r="A9" s="10" t="s">
         <v>65</v>
       </c>
@@ -1518,7 +1907,7 @@
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" s="10" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" s="10" customFormat="1" ht="19">
       <c r="A10" s="10" t="s">
         <v>67</v>
       </c>
@@ -1527,15 +1916,15 @@
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" s="10" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" s="10" customFormat="1" ht="19">
       <c r="C11" s="2"/>
     </row>
-    <row r="13" spans="1:3" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" s="8" customFormat="1" ht="30" customHeight="1">
       <c r="A13" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="19">
       <c r="A14" s="10" t="s">
         <v>62</v>
       </c>
@@ -1543,7 +1932,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="19">
       <c r="A15" s="10" t="s">
         <v>63</v>
       </c>
@@ -1551,7 +1940,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="19">
       <c r="A16" s="10" t="s">
         <v>64</v>
       </c>
@@ -1559,7 +1948,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="19">
       <c r="A17" s="10" t="s">
         <v>71</v>
       </c>
@@ -1567,7 +1956,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="19">
       <c r="A18" s="12" t="s">
         <v>74</v>
       </c>
@@ -1582,256 +1971,257 @@
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="13"/>
       <c r="B4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="13"/>
       <c r="B5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="13"/>
       <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="13"/>
       <c r="B7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="13"/>
       <c r="B8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="13"/>
       <c r="B9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="13"/>
       <c r="B10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="13"/>
       <c r="B11" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="13"/>
       <c r="B12" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="13"/>
       <c r="B14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="13"/>
       <c r="B15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="B16" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="13"/>
       <c r="B18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="13"/>
       <c r="B19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="13"/>
       <c r="B20" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
       <c r="A21" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" s="13"/>
       <c r="B23" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" s="13"/>
       <c r="B24" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="B25" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" s="13"/>
       <c r="B27" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" s="13"/>
       <c r="B28" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
       <c r="A29" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A31" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A32" s="9" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" s="13"/>
       <c r="B33" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" s="13"/>
       <c r="B34" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" s="13"/>
       <c r="B35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" s="13"/>
       <c r="B36" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" s="13"/>
       <c r="B37" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
       <c r="A38" s="16" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" s="13"/>
       <c r="B39" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
       <c r="A40" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
       <c r="A42" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" s="13"/>
       <c r="B43" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" s="13"/>
       <c r="B44" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" s="13"/>
       <c r="B45" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="13"/>
+      <c r="B46" s="15" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1843,225 +2233,227 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{765BE9AA-DDCC-5B40-A3AB-A05A27C865F7}">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="13"/>
       <c r="B3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="13"/>
       <c r="B4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="13"/>
       <c r="B5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="13"/>
       <c r="B6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="13"/>
       <c r="B7" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
       <c r="A8" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
       <c r="A9" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="13"/>
       <c r="B10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="13"/>
       <c r="B11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="B12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="13"/>
       <c r="B14" s="15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="13"/>
       <c r="B15" s="15" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="13"/>
       <c r="B16" s="14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="13"/>
       <c r="B17" s="14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
       <c r="A19" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
       <c r="A21" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="13"/>
       <c r="B22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" s="13"/>
       <c r="B23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" s="13"/>
       <c r="B24" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" s="13"/>
       <c r="B25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" s="13"/>
       <c r="B26" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" s="13"/>
       <c r="B27" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" s="13"/>
       <c r="B28" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" s="13"/>
       <c r="B29" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" s="13"/>
       <c r="B30" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
       <c r="A31" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" s="13"/>
       <c r="B32" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="13"/>
       <c r="B33" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" s="13"/>
       <c r="B34" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
       <c r="A35" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
       <c r="A37" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" s="13"/>
       <c r="B38" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" s="13"/>
       <c r="B39" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" s="13"/>
       <c r="B40" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" s="13"/>
       <c r="B41" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2071,276 +2463,840 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BF5BAA-D435-A24C-98B8-56DB67A65D3E}">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="17" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="8" customFormat="1" ht="30" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="9" customFormat="1" ht="21" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="13"/>
       <c r="B4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="13"/>
       <c r="B5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="13"/>
       <c r="B6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="13"/>
       <c r="B7" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="9" customFormat="1" ht="21" customHeight="1">
       <c r="A8" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="13"/>
       <c r="B9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="13"/>
       <c r="B10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="13"/>
       <c r="B11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="13"/>
       <c r="B12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="13"/>
       <c r="B14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="13"/>
       <c r="B15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="13"/>
       <c r="B16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="13"/>
       <c r="B17" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="13"/>
       <c r="B18" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
       <c r="A19" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="13"/>
       <c r="B20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="13"/>
       <c r="B21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="13"/>
       <c r="B22" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
       <c r="A23" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
       <c r="A24" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" s="13"/>
       <c r="B25" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" s="13"/>
       <c r="B26" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="13"/>
       <c r="B27" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="13"/>
+      <c r="B28" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" s="13"/>
       <c r="B29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A30" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="13"/>
+      <c r="B31" s="15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
+      <c r="A32" s="13"/>
+      <c r="B32" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A33" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A35" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A36" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="13"/>
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="13"/>
+      <c r="B38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="13"/>
+      <c r="B39" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="13"/>
+      <c r="B40" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="13"/>
+      <c r="B41" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A42" s="16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="13"/>
+      <c r="B43" s="15"/>
+    </row>
+    <row r="44" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A44" s="18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="13"/>
+      <c r="B45" s="15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="13"/>
+      <c r="B46" s="19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A47" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="13"/>
+      <c r="B48" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="13"/>
+      <c r="B49" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="13"/>
+      <c r="B50" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="13"/>
+      <c r="B51" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="13"/>
+      <c r="B52" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C71B62-62EB-E542-9C9F-F4F0155C778E}">
+  <dimension ref="A1:C97"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C107" sqref="C107"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A1" s="17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A2" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A3" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="13"/>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="13"/>
+      <c r="B5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="13"/>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="13"/>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="13"/>
+      <c r="B8" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="13"/>
+      <c r="B9" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A10" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="13"/>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="13"/>
+      <c r="B12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="13"/>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="13"/>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="13"/>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="13"/>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="13"/>
+      <c r="B18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="13"/>
+      <c r="B19" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="13"/>
+      <c r="B20" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A21" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="13"/>
+      <c r="B22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="13"/>
+      <c r="B23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="13"/>
+      <c r="B24" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A25" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A26" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="13"/>
+      <c r="B27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="13"/>
+      <c r="B28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="13"/>
+      <c r="B29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" s="13"/>
-      <c r="B30" t="s">
+      <c r="B30" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="13"/>
+      <c r="B31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A32" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="13"/>
+      <c r="B33" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="13"/>
+      <c r="B34" s="15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="13"/>
-      <c r="B35" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A35" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" s="13"/>
       <c r="B36" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A37" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="13"/>
+      <c r="B38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="13"/>
+      <c r="B39" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="13"/>
-      <c r="B37" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" s="13"/>
+      <c r="B40" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="13"/>
-      <c r="B38" s="11" t="s">
+    <row r="41" spans="1:2">
+      <c r="A41" s="13"/>
+      <c r="B41" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="13"/>
+      <c r="B42" s="11" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="13"/>
-      <c r="B39" s="11" t="s">
+    <row r="43" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A43" s="18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="13"/>
+      <c r="B44" s="15"/>
+    </row>
+    <row r="45" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A45" s="18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="13"/>
+      <c r="B46" s="15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="13"/>
+      <c r="B47" s="19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A48" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="13"/>
+    </row>
+    <row r="50" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A50" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="13"/>
+      <c r="B51" s="15"/>
+    </row>
+    <row r="52" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A52" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="13"/>
+    </row>
+    <row r="57" spans="1:2" s="20" customFormat="1" ht="37" customHeight="1">
+      <c r="A57" s="20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A59" s="17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A60" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A61" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="13"/>
+      <c r="B62" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="13"/>
+      <c r="B63" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="13"/>
+      <c r="B64" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="13"/>
+      <c r="B65" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="13"/>
+      <c r="B66" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="13"/>
+      <c r="B67" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="16" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="13"/>
-      <c r="B41" s="15" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="13"/>
-      <c r="B43" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="13"/>
-      <c r="B44" t="s">
+    <row r="68" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A68" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="13"/>
+      <c r="B69" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="13"/>
+      <c r="B70" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="13"/>
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="13"/>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="13"/>
+      <c r="B73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="13"/>
+      <c r="B74" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="13"/>
+      <c r="B75" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="13"/>
+      <c r="B76" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="13"/>
+      <c r="B77" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A78" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="13"/>
+      <c r="B79" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="13"/>
+      <c r="B80" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="13"/>
+      <c r="B81" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A82" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A83" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="13"/>
+      <c r="B84" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="13"/>
+      <c r="B85" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="13"/>
+      <c r="B86" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="13"/>
+      <c r="B87" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="13"/>
-      <c r="B45" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="13"/>
-      <c r="B46" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="13"/>
-      <c r="B47" t="s">
-        <v>116</v>
-      </c>
+    <row r="88" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A88" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="13"/>
+      <c r="B89" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A90" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="13"/>
+      <c r="B91" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="13"/>
+      <c r="B92" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="13"/>
+      <c r="B93" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="13"/>
+      <c r="B94" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="13"/>
+      <c r="B95" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A96" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="13"/>
+      <c r="B97" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/products/identity-personalization/personalization 2.0/Combine Profile and Account/Information architecture/Prof & Acct. — Content inventory and information architecture.xlsx
+++ b/products/identity-personalization/personalization 2.0/Combine Profile and Account/Information architecture/Prof & Acct. — Content inventory and information architecture.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vacostraus/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C0B5CF-8CC5-354A-83A3-9328CB7C60BF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7C1837-9E34-8E47-A74E-D9A6BDDFA1FD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="25600" windowHeight="14660" activeTab="5" xr2:uid="{71A3B6E5-147C-D943-9295-451357BFED97}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="25600" windowHeight="14660" activeTab="7" xr2:uid="{71A3B6E5-147C-D943-9295-451357BFED97}"/>
   </bookViews>
   <sheets>
     <sheet name="Oct. '19 Content Inventory" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="IA iteration 2" sheetId="4" r:id="rId4"/>
     <sheet name="IA iteration 3" sheetId="6" r:id="rId5"/>
     <sheet name="Iteration 4" sheetId="7" r:id="rId6"/>
+    <sheet name="Iteration 5" sheetId="8" r:id="rId7"/>
+    <sheet name="Iteration 6" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="159">
   <si>
     <t>Editable?</t>
   </si>
@@ -901,6 +903,128 @@
   </si>
   <si>
     <t>[Applications]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your dependents </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your POA/representative </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PROPOSAL 5 for [Profile &amp; Settings; My VA; Whatever] |</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="18"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Italics = future feature</t>
+    </r>
+  </si>
+  <si>
+    <t>POA/representative</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Your benefits </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>if no benefits, this could have some sort of blank state or we could hide it until there is data to show?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Your profile</t>
+  </si>
+  <si>
+    <t>Personal information (QUESTION: Should this be in some sort of editable banner at the top of the profile? OR this could be the default open section)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PROPOSAL 6 for [Profile &amp; Settings; My VA; Whatever] |</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="18"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Italics = future feature</t>
+    </r>
+  </si>
+  <si>
+    <t>Your direct deposit and payments</t>
+  </si>
+  <si>
+    <t>Your notification preferences</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Set up 2-factor authentication </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(can we show this as a CTA outside of the main nav since it's a one-time thing?)</t>
+    </r>
+  </si>
+  <si>
+    <t>Your direct deposit information</t>
   </si>
 </sst>
 </file>
@@ -1049,7 +1173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1081,6 +1205,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2465,7 +2590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BF5BAA-D435-A24C-98B8-56DB67A65D3E}">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A30" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
@@ -2771,8 +2896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C71B62-62EB-E542-9C9F-F4F0155C778E}">
   <dimension ref="A1:C97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C107" sqref="C107"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2801,250 +2926,245 @@
     <row r="5" spans="1:3">
       <c r="A5" s="13"/>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="13"/>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="13"/>
-      <c r="B7" t="s">
-        <v>28</v>
+      <c r="B7" s="11" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="13"/>
       <c r="B8" s="11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="9" customFormat="1" ht="21" customHeight="1">
-      <c r="A10" s="9" t="s">
+    <row r="9" spans="1:3" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A9" s="9" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="13"/>
+      <c r="B10" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="13"/>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="13"/>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="13"/>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="13"/>
-      <c r="B14" t="s">
-        <v>8</v>
+      <c r="B14" s="13"/>
+      <c r="C14" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" t="s">
-        <v>115</v>
+      <c r="B15" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="13"/>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="13"/>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="13"/>
-      <c r="B18" t="s">
-        <v>138</v>
+      <c r="B18" s="11" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="13"/>
       <c r="B19" s="11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
-      <c r="A21" s="9" t="s">
+    <row r="20" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A20" s="9" t="s">
         <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="13"/>
+      <c r="B21" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="13"/>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="13"/>
-      <c r="B23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="13"/>
-      <c r="B24" s="11" t="s">
+      <c r="B23" s="11" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A25" s="8" t="s">
+    <row r="24" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A24" s="8" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
-      <c r="A26" s="9" t="s">
+    <row r="25" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A25" s="9" t="s">
         <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="13"/>
+      <c r="B26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="13"/>
       <c r="B27" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="13"/>
       <c r="B28" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="13"/>
-      <c r="B29" t="s">
-        <v>133</v>
+      <c r="B29" s="15" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="13"/>
-      <c r="B30" s="15" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="13"/>
-      <c r="B31" t="s">
+      <c r="B30" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
-      <c r="A32" s="16" t="s">
+    <row r="31" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A31" s="16" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="13"/>
+      <c r="B32" s="15" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="13"/>
       <c r="B33" s="15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="13"/>
-      <c r="B34" s="15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
-      <c r="A35" s="9" t="s">
+    <row r="34" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A34" s="9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="13"/>
-      <c r="B36" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" s="13"/>
+      <c r="B35" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A37" s="8" t="s">
+    <row r="36" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A36" s="8" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="13"/>
+      <c r="B37" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="13"/>
       <c r="B38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="13"/>
       <c r="B39" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="13"/>
-      <c r="B40" t="s">
-        <v>22</v>
+      <c r="B40" s="11" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="13"/>
       <c r="B41" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="13"/>
-      <c r="B42" s="11" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A43" s="18" t="s">
+    <row r="42" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A42" s="18" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="13"/>
-      <c r="B44" s="15"/>
-    </row>
-    <row r="45" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A45" s="18" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="13"/>
-      <c r="B46" s="15" t="s">
-        <v>128</v>
+    <row r="43" spans="1:2">
+      <c r="A43" s="13"/>
+      <c r="B43" s="15"/>
+    </row>
+    <row r="44" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A44" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="13"/>
+      <c r="B45" s="15"/>
+    </row>
+    <row r="46" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A46" s="18" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="13"/>
-      <c r="B47" s="19" t="s">
-        <v>129</v>
-      </c>
+      <c r="B47" s="15"/>
     </row>
     <row r="48" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
       <c r="A48" s="18" t="s">
@@ -3301,4 +3421,1073 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{211A2093-B4E5-1145-9378-B14F060EC683}">
+  <dimension ref="A1:C97"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A1" s="17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A2" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A3" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="13"/>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="13"/>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="13"/>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="13"/>
+      <c r="B7" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="13"/>
+      <c r="B8" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A9" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="13"/>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="13"/>
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="13"/>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="13"/>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="13"/>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="13"/>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="13"/>
+      <c r="B17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="13"/>
+      <c r="B18" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="13"/>
+      <c r="B19" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A20" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="13"/>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="13"/>
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="13"/>
+      <c r="B23" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" s="16" customFormat="1" ht="21" customHeight="1">
+      <c r="A24" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" s="16" customFormat="1" ht="21" customHeight="1">
+      <c r="A26" s="16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" s="16" customFormat="1" ht="21" customHeight="1">
+      <c r="A28" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="13"/>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="13"/>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="13"/>
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="13"/>
+      <c r="B32" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="13"/>
+      <c r="B33" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" s="16" customFormat="1" ht="21" customHeight="1">
+      <c r="A34" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A36" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A37" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="13"/>
+      <c r="B38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="13"/>
+      <c r="B39" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="13"/>
+      <c r="B40" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="13"/>
+      <c r="B41" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="13"/>
+      <c r="B42" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A43" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="13"/>
+      <c r="B44" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="13"/>
+      <c r="B45" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A46" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="13"/>
+      <c r="B47" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="13"/>
+      <c r="B48" s="15"/>
+    </row>
+    <row r="49" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A49" s="18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="13"/>
+    </row>
+    <row r="51" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A51" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="13"/>
+    </row>
+    <row r="53" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A53" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" s="20" customFormat="1" ht="37" customHeight="1">
+      <c r="A56" s="20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A58" s="17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A59" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A60" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="13"/>
+      <c r="B61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="13"/>
+      <c r="B62" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="13"/>
+      <c r="B63" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="13"/>
+      <c r="B64" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="13"/>
+      <c r="B65" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="13"/>
+      <c r="B66" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A67" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="13"/>
+      <c r="B68" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="13"/>
+      <c r="B69" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="13"/>
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="13"/>
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="13"/>
+      <c r="B72" s="13"/>
+      <c r="C72" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="13"/>
+      <c r="B73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="13"/>
+      <c r="B74" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="13"/>
+      <c r="B75" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="13"/>
+      <c r="B76" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="13"/>
+      <c r="B77" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A78" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="13"/>
+      <c r="B79" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="13"/>
+      <c r="B80" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="13"/>
+      <c r="B81" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" s="16" customFormat="1" ht="21" customHeight="1">
+      <c r="A82" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="13"/>
+      <c r="B83" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="13"/>
+      <c r="B84" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="13"/>
+      <c r="B85" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="13"/>
+      <c r="B86" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="13"/>
+      <c r="B87" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A88" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A89" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="13"/>
+      <c r="B90" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="13"/>
+      <c r="B91" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="13"/>
+      <c r="B92" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="13"/>
+      <c r="B93" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="13"/>
+      <c r="B94" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A95" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="13"/>
+      <c r="B96" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A97" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F72B0A5-EFBD-C540-8D49-B5EF9AD59063}">
+  <dimension ref="A1:C97"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K95" sqref="K95"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A1" s="17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A2" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A3" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="13"/>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="13"/>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="13"/>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="13"/>
+      <c r="B7" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="13"/>
+      <c r="B8" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A9" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="13"/>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="13"/>
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="13"/>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="13"/>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="13"/>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="13"/>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="13"/>
+      <c r="B17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="13"/>
+      <c r="B18" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="13"/>
+      <c r="B19" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A20" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="13"/>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="13"/>
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="13"/>
+      <c r="B23" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" s="16" customFormat="1" ht="21" customHeight="1">
+      <c r="A24" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" s="16" customFormat="1" ht="21" customHeight="1">
+      <c r="A26" s="16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A28" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A29" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="13"/>
+      <c r="B30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="13"/>
+      <c r="B31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="13"/>
+      <c r="B32" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="13"/>
+      <c r="B33" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="13"/>
+      <c r="B34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A35" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="13"/>
+      <c r="B36" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="13"/>
+      <c r="B37" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A38" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="13"/>
+      <c r="B39" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A40" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A41" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="13"/>
+      <c r="B42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="13"/>
+      <c r="B43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="13"/>
+      <c r="B44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="13"/>
+      <c r="B45" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="13"/>
+      <c r="B46" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A47" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="21"/>
+      <c r="B48" s="15"/>
+    </row>
+    <row r="49" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A49" s="18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="13"/>
+    </row>
+    <row r="51" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A51" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="13"/>
+    </row>
+    <row r="53" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A53" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="13"/>
+      <c r="B54" s="15"/>
+    </row>
+    <row r="55" spans="1:2" s="20" customFormat="1" ht="37" customHeight="1">
+      <c r="A55" s="20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A57" s="17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A58" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A59" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="13"/>
+      <c r="B60" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="13"/>
+      <c r="B61" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="13"/>
+      <c r="B62" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="13"/>
+      <c r="B63" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="13"/>
+      <c r="B64" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="13"/>
+      <c r="B65" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A66" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="13"/>
+      <c r="B67" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="13"/>
+      <c r="B68" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="13"/>
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="13"/>
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="13"/>
+      <c r="B71" s="13"/>
+      <c r="C71" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="13"/>
+      <c r="B72" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="13"/>
+      <c r="B73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="13"/>
+      <c r="B74" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="13"/>
+      <c r="B75" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="13"/>
+      <c r="B76" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A77" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="13"/>
+      <c r="B78" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="13"/>
+      <c r="B79" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="13"/>
+      <c r="B80" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A81" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A82" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="13"/>
+      <c r="B83" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="13"/>
+      <c r="B84" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="13"/>
+      <c r="B85" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="13"/>
+      <c r="B86" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="13"/>
+      <c r="B87" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A88" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="13"/>
+      <c r="B89" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A90" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="13"/>
+      <c r="B91" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="13"/>
+      <c r="B92" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="13"/>
+      <c r="B93" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="13"/>
+      <c r="B94" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="13"/>
+      <c r="B95" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A96" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="13"/>
+      <c r="B97" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/products/identity-personalization/personalization 2.0/Combine Profile and Account/Information architecture/Prof & Acct. — Content inventory and information architecture.xlsx
+++ b/products/identity-personalization/personalization 2.0/Combine Profile and Account/Information architecture/Prof & Acct. — Content inventory and information architecture.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vacostraus/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7C1837-9E34-8E47-A74E-D9A6BDDFA1FD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCD0BEC-D87E-3146-B8CA-B2718199196B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="25600" windowHeight="14660" activeTab="7" xr2:uid="{71A3B6E5-147C-D943-9295-451357BFED97}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="25600" windowHeight="14660" activeTab="8" xr2:uid="{71A3B6E5-147C-D943-9295-451357BFED97}"/>
   </bookViews>
   <sheets>
     <sheet name="Oct. '19 Content Inventory" sheetId="1" r:id="rId1"/>
     <sheet name="eBenefits content" sheetId="2" r:id="rId2"/>
-    <sheet name="IA iteration 1" sheetId="3" r:id="rId3"/>
-    <sheet name="IA iteration 2" sheetId="4" r:id="rId4"/>
-    <sheet name="IA iteration 3" sheetId="6" r:id="rId5"/>
+    <sheet name="Iteration 1" sheetId="3" r:id="rId3"/>
+    <sheet name="Iteration 2" sheetId="4" r:id="rId4"/>
+    <sheet name="Iteration 3" sheetId="6" r:id="rId5"/>
     <sheet name="Iteration 4" sheetId="7" r:id="rId6"/>
     <sheet name="Iteration 5" sheetId="8" r:id="rId7"/>
     <sheet name="Iteration 6" sheetId="9" r:id="rId8"/>
+    <sheet name="IA Proposal" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="177">
   <si>
     <t>Editable?</t>
   </si>
@@ -1025,6 +1026,82 @@
   </si>
   <si>
     <t>Your direct deposit information</t>
+  </si>
+  <si>
+    <t>Phase 1: Update existing Profile; Remove Account</t>
+  </si>
+  <si>
+    <t>This involves:
+1. Visual update of Profile.
+2. Integration of the features currently on the Account page.
+3. Removal of "Account" from the navigation and My VA. "Profile" will remain in the navigation and in My VA.
+4. No other IA changes at this time.</t>
+  </si>
+  <si>
+    <t>MVP IA (Under Main Nav &gt; Profile)</t>
+  </si>
+  <si>
+    <t>Direct Deposit Information</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Have questions about how to sign into VA.gov? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(would link to sign in FAQ)</t>
+    </r>
+  </si>
+  <si>
+    <t>(*Note: this only shows if someone has health care and has accepted T&amp;Cs(</t>
+  </si>
+  <si>
+    <t>Phase 2: Potentially having the Profile replace My VA</t>
+  </si>
+  <si>
+    <t>This involves:
+1. Integration of benefit information into the profile. 
+2. Killing My VA in its current iteration.
+3. Replacing existing My VA with this new user profile.
+4. Referring to this new combined profile/account/benefit section as "My VA."
+This wouldn't occur until we remove the existing My VA. We'd integrate the existing My VA features, like updates and applications, elsewhere onto VA.gov.</t>
+  </si>
+  <si>
+    <t>MVP IA (Under Main Nav &gt; My VA)</t>
+  </si>
+  <si>
+    <t>[other benefits for which we have enrollment info]</t>
+  </si>
+  <si>
+    <t>Phase 3+: Additional features we're going to integrate into the new Profile/My VA</t>
+  </si>
+  <si>
+    <t>This involves:
+1. Integrating new features from eBenefits and elsewhere into this section.</t>
+  </si>
+  <si>
+    <t>Disability</t>
+  </si>
+  <si>
+    <t>Direct Deposit and Payments</t>
+  </si>
+  <si>
+    <t>Note: This only shows for people who have connected accounts</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Health care (will include medical T&amp;C)</t>
+  </si>
+  <si>
+    <t>You've accepted medical T&amp;C</t>
   </si>
 </sst>
 </file>
@@ -1173,7 +1250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1206,6 +1283,12 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2894,10 +2977,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C71B62-62EB-E542-9C9F-F4F0155C778E}">
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:C98"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3013,410 +3096,416 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="13"/>
+      <c r="B20" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A21" s="9" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="13"/>
-      <c r="B21" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="13"/>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="13"/>
-      <c r="B23" s="11" t="s">
+      <c r="B23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="13"/>
+      <c r="B24" s="11" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A24" s="8" t="s">
+    <row r="25" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A25" s="8" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
-      <c r="A25" s="9" t="s">
+    <row r="26" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A26" s="9" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="13"/>
-      <c r="B26" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="13"/>
       <c r="B27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="13"/>
       <c r="B28" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="13"/>
-      <c r="B29" s="15" t="s">
-        <v>134</v>
+      <c r="B29" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="13"/>
-      <c r="B30" t="s">
+      <c r="B30" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="13"/>
+      <c r="B31" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
-      <c r="A31" s="16" t="s">
+    <row r="32" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A32" s="16" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="13"/>
-      <c r="B32" s="15" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="13"/>
       <c r="B33" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="13"/>
+      <c r="B34" s="15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
-      <c r="A34" s="9" t="s">
+    <row r="35" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A35" s="9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="13"/>
-      <c r="B35" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" s="13"/>
+      <c r="B36" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="36" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A36" s="8" t="s">
+    <row r="37" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A37" s="8" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="13"/>
-      <c r="B37" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="13"/>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="13"/>
       <c r="B39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="13"/>
-      <c r="B40" s="11" t="s">
-        <v>89</v>
+      <c r="B40" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="13"/>
       <c r="B41" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="13"/>
+      <c r="B42" s="11" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A42" s="18" t="s">
+    <row r="43" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A43" s="18" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="13"/>
-      <c r="B43" s="15"/>
-    </row>
-    <row r="44" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A44" s="18" t="s">
+    <row r="44" spans="1:2">
+      <c r="A44" s="13"/>
+      <c r="B44" s="15"/>
+    </row>
+    <row r="45" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A45" s="18" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="13"/>
-      <c r="B45" s="15"/>
-    </row>
-    <row r="46" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A46" s="18" t="s">
+    <row r="46" spans="1:2">
+      <c r="A46" s="13"/>
+      <c r="B46" s="15"/>
+    </row>
+    <row r="47" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A47" s="18" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="13"/>
-      <c r="B47" s="15"/>
-    </row>
-    <row r="48" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A48" s="18" t="s">
+    <row r="48" spans="1:2">
+      <c r="A48" s="13"/>
+      <c r="B48" s="15"/>
+    </row>
+    <row r="49" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A49" s="18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="13"/>
-    </row>
-    <row r="50" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A50" s="8" t="s">
+    <row r="50" spans="1:2">
+      <c r="A50" s="13"/>
+    </row>
+    <row r="51" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A51" s="8" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="13"/>
-      <c r="B51" s="15"/>
-    </row>
-    <row r="52" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A52" s="8" t="s">
+    <row r="52" spans="1:2">
+      <c r="A52" s="13"/>
+      <c r="B52" s="15"/>
+    </row>
+    <row r="53" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A53" s="8" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="13"/>
-    </row>
-    <row r="57" spans="1:2" s="20" customFormat="1" ht="37" customHeight="1">
-      <c r="A57" s="20" t="s">
+    <row r="54" spans="1:2">
+      <c r="A54" s="13"/>
+    </row>
+    <row r="58" spans="1:2" s="20" customFormat="1" ht="37" customHeight="1">
+      <c r="A58" s="20" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="59" spans="1:2" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A59" s="17" t="s">
+    <row r="60" spans="1:2" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A60" s="17" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="60" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A60" s="8" t="s">
+    <row r="61" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A61" s="8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="61" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
-      <c r="A61" s="9" t="s">
+    <row r="62" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A62" s="9" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="13"/>
-      <c r="B62" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="13"/>
       <c r="B63" t="s">
-        <v>99</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="13"/>
       <c r="B64" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="13"/>
       <c r="B65" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="13"/>
-      <c r="B66" s="11" t="s">
-        <v>136</v>
+      <c r="B66" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="13"/>
       <c r="B67" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="13"/>
+      <c r="B68" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="68" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
-      <c r="A68" s="9" t="s">
+    <row r="69" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A69" s="9" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="13"/>
-      <c r="B69" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="13"/>
       <c r="B70" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="13"/>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="13"/>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="13"/>
       <c r="B73" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="13"/>
       <c r="B74" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="13"/>
       <c r="B75" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="13"/>
-      <c r="B76" s="11" t="s">
-        <v>139</v>
+      <c r="B76" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="13"/>
       <c r="B77" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="13"/>
+      <c r="B78" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
-      <c r="A78" s="9" t="s">
+    <row r="79" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A79" s="9" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="13"/>
-      <c r="B79" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="13"/>
       <c r="B80" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="13"/>
-      <c r="B81" s="11" t="s">
+      <c r="B81" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="13"/>
+      <c r="B82" s="11" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="82" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A82" s="8" t="s">
+    <row r="83" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A83" s="8" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="83" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
-      <c r="A83" s="9" t="s">
+    <row r="84" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A84" s="9" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="13"/>
-      <c r="B84" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="13"/>
       <c r="B85" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="13"/>
       <c r="B86" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="13"/>
       <c r="B87" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="13"/>
+      <c r="B88" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="88" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
-      <c r="A88" s="9" t="s">
+    <row r="89" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A89" s="9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="13"/>
-      <c r="B89" t="s">
+    <row r="90" spans="1:2">
+      <c r="A90" s="13"/>
+      <c r="B90" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="90" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A90" s="8" t="s">
+    <row r="91" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A91" s="8" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="13"/>
-      <c r="B91" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="13"/>
       <c r="B92" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="13"/>
       <c r="B93" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="13"/>
-      <c r="B94" s="11" t="s">
-        <v>89</v>
+      <c r="B94" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="13"/>
       <c r="B95" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="13"/>
+      <c r="B96" s="11" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="96" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A96" s="8" t="s">
+    <row r="97" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A97" s="8" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="13"/>
-      <c r="B97" s="15"/>
+    <row r="98" spans="1:2">
+      <c r="A98" s="13"/>
+      <c r="B98" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3425,10 +3514,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{211A2093-B4E5-1145-9378-B14F060EC683}">
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:C95"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3544,145 +3633,145 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="13"/>
+      <c r="B20" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A21" s="9" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="13"/>
-      <c r="B21" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="13"/>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="13"/>
-      <c r="B23" s="11" t="s">
+      <c r="B23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="13"/>
+      <c r="B24" s="11" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="16" customFormat="1" ht="21" customHeight="1">
-      <c r="A24" s="16" t="s">
+    <row r="25" spans="1:2" s="16" customFormat="1" ht="21" customHeight="1">
+      <c r="A25" s="16" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="16" customFormat="1" ht="21" customHeight="1">
-      <c r="A26" s="16" t="s">
+    <row r="27" spans="1:2" s="16" customFormat="1" ht="21" customHeight="1">
+      <c r="A27" s="16" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:2" s="16" customFormat="1" ht="21" customHeight="1">
-      <c r="A28" s="9" t="s">
+    <row r="29" spans="1:2" s="16" customFormat="1" ht="21" customHeight="1">
+      <c r="A29" s="9" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="13"/>
-      <c r="B29" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="13"/>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="13"/>
       <c r="B31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="13"/>
-      <c r="B32" s="11" t="s">
-        <v>89</v>
+      <c r="B32" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="13"/>
       <c r="B33" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="13"/>
+      <c r="B34" s="11" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="16" customFormat="1" ht="21" customHeight="1">
-      <c r="A34" s="16" t="s">
+    <row r="35" spans="1:2" s="16" customFormat="1" ht="21" customHeight="1">
+      <c r="A35" s="16" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A36" s="8" t="s">
+    <row r="37" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A37" s="8" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
-      <c r="A37" s="9" t="s">
+    <row r="38" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A38" s="9" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="13"/>
-      <c r="B38" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="13"/>
       <c r="B39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="13"/>
       <c r="B40" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="13"/>
-      <c r="B41" s="15" t="s">
-        <v>134</v>
+      <c r="B41" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="13"/>
-      <c r="B42" t="s">
+      <c r="B42" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="13"/>
+      <c r="B43" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
-      <c r="A43" s="16" t="s">
+    <row r="44" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A44" s="16" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="13"/>
-      <c r="B44" s="15" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="13"/>
       <c r="B45" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="13"/>
+      <c r="B46" s="15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
-      <c r="A46" s="9" t="s">
+    <row r="47" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A47" s="9" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="13"/>
-      <c r="B47" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -3930,19 +4019,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="95" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
-      <c r="A95" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="13"/>
-      <c r="B96" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A97" s="8" t="s">
+    <row r="95" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A95" s="8" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3953,10 +4031,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F72B0A5-EFBD-C540-8D49-B5EF9AD59063}">
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:C96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K95" sqref="K95"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4072,422 +4150,633 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="13"/>
+      <c r="B20" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A21" s="9" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="13"/>
-      <c r="B21" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="13"/>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="13"/>
-      <c r="B23" s="11" t="s">
+      <c r="B23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="13"/>
+      <c r="B24" s="11" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="16" customFormat="1" ht="21" customHeight="1">
-      <c r="A24" s="16" t="s">
+    <row r="25" spans="1:2" s="16" customFormat="1" ht="21" customHeight="1">
+      <c r="A25" s="16" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="16" customFormat="1" ht="21" customHeight="1">
-      <c r="A26" s="16" t="s">
+    <row r="27" spans="1:2" s="16" customFormat="1" ht="21" customHeight="1">
+      <c r="A27" s="16" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A28" s="8" t="s">
+    <row r="29" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A29" s="8" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
-      <c r="A29" s="9" t="s">
+    <row r="30" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A30" s="9" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="13"/>
-      <c r="B30" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="13"/>
       <c r="B31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="13"/>
       <c r="B32" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="13"/>
-      <c r="B33" s="15" t="s">
-        <v>134</v>
+      <c r="B33" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="13"/>
-      <c r="B34" t="s">
+      <c r="B34" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="13"/>
+      <c r="B35" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
-      <c r="A35" s="16" t="s">
+    <row r="36" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A36" s="16" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="13"/>
-      <c r="B36" s="15" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="13"/>
       <c r="B37" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="13"/>
+      <c r="B38" s="15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
-      <c r="A38" s="9" t="s">
+    <row r="39" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A39" s="9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="13"/>
-      <c r="B39" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A40" s="8" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" s="13"/>
+    </row>
+    <row r="41" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A41" s="8" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="41" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
-      <c r="A41" s="9" t="s">
+    <row r="42" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A42" s="9" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="13"/>
-      <c r="B42" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="13"/>
       <c r="B43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="13"/>
       <c r="B44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="13"/>
-      <c r="B45" s="11" t="s">
-        <v>89</v>
+      <c r="B45" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="13"/>
       <c r="B46" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="13"/>
+      <c r="B47" s="11" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
-      <c r="A47" s="16" t="s">
+    <row r="48" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A48" s="16" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="21"/>
-      <c r="B48" s="15"/>
-    </row>
-    <row r="49" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A49" s="18" t="s">
+    <row r="49" spans="1:2">
+      <c r="A49" s="21"/>
+      <c r="B49" s="15"/>
+    </row>
+    <row r="50" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A50" s="18" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="13"/>
-    </row>
-    <row r="51" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A51" s="8" t="s">
+    <row r="51" spans="1:2">
+      <c r="A51" s="13"/>
+    </row>
+    <row r="52" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A52" s="8" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="13"/>
-    </row>
-    <row r="53" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A53" s="8" t="s">
+    <row r="53" spans="1:2">
+      <c r="A53" s="13"/>
+    </row>
+    <row r="54" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A54" s="8" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="13"/>
-      <c r="B54" s="15"/>
-    </row>
-    <row r="55" spans="1:2" s="20" customFormat="1" ht="37" customHeight="1">
-      <c r="A55" s="20" t="s">
+    <row r="55" spans="1:2">
+      <c r="A55" s="13"/>
+      <c r="B55" s="15"/>
+    </row>
+    <row r="56" spans="1:2" s="20" customFormat="1" ht="37" customHeight="1">
+      <c r="A56" s="20" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="57" spans="1:2" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A57" s="17" t="s">
+    <row r="58" spans="1:2" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A58" s="17" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="58" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A58" s="8" t="s">
+    <row r="59" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A59" s="8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="59" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
-      <c r="A59" s="9" t="s">
+    <row r="60" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A60" s="9" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="13"/>
-      <c r="B60" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="13"/>
       <c r="B61" t="s">
-        <v>99</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="13"/>
       <c r="B62" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="13"/>
       <c r="B63" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="13"/>
-      <c r="B64" s="11" t="s">
-        <v>136</v>
+      <c r="B64" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="13"/>
       <c r="B65" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="13"/>
+      <c r="B66" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="66" spans="1:3" s="9" customFormat="1" ht="21" customHeight="1">
-      <c r="A66" s="9" t="s">
+    <row r="67" spans="1:3" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A67" s="9" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="13"/>
-      <c r="B67" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="13"/>
       <c r="B68" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="13"/>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="13"/>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="13"/>
-      <c r="B71" s="13"/>
-      <c r="C71" t="s">
-        <v>115</v>
+      <c r="B71" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="13"/>
-      <c r="B72" t="s">
-        <v>9</v>
+      <c r="B72" s="13"/>
+      <c r="C72" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="13"/>
       <c r="B73" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="13"/>
       <c r="B74" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="13"/>
-      <c r="B75" s="11" t="s">
-        <v>139</v>
+      <c r="B75" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="13"/>
       <c r="B76" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="13"/>
+      <c r="B77" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="77" spans="1:3" s="9" customFormat="1" ht="21" customHeight="1">
-      <c r="A77" s="9" t="s">
+    <row r="78" spans="1:3" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A78" s="9" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="13"/>
-      <c r="B78" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="13"/>
       <c r="B79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="13"/>
-      <c r="B80" s="11" t="s">
+      <c r="B80" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="13"/>
+      <c r="B81" s="11" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="81" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A81" s="8" t="s">
+    <row r="82" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A82" s="8" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="82" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
-      <c r="A82" s="9" t="s">
+    <row r="83" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A83" s="9" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="13"/>
-      <c r="B83" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="13"/>
       <c r="B84" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="13"/>
       <c r="B85" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="13"/>
-      <c r="B86" s="15" t="s">
-        <v>134</v>
+      <c r="B86" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="13"/>
-      <c r="B87" t="s">
+      <c r="B87" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="13"/>
+      <c r="B88" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="88" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
-      <c r="A88" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="13"/>
-      <c r="B89" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A90" s="8" t="s">
+    <row r="89" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A89" s="8" t="s">
         <v>158</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="13"/>
+      <c r="B90" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="13"/>
       <c r="B91" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="13"/>
       <c r="B92" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="13"/>
-      <c r="B93" t="s">
-        <v>22</v>
+      <c r="B93" s="11" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="13"/>
       <c r="B94" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="13"/>
-      <c r="B95" s="11" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="96" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A96" s="8" t="s">
+    <row r="95" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A95" s="8" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="13"/>
-      <c r="B97" s="15"/>
+    <row r="96" spans="1:2">
+      <c r="A96" s="13"/>
+      <c r="B96" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF35EA3-E63B-664E-AE2A-8DC876D8E757}">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="31.83203125" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" customWidth="1"/>
+    <col min="4" max="4" width="26.83203125" customWidth="1"/>
+    <col min="5" max="5" width="28.5" customWidth="1"/>
+    <col min="6" max="6" width="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="22" customFormat="1" ht="140" customHeight="1">
+      <c r="A2" s="22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="9" customFormat="1" ht="19">
+      <c r="A4" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A12" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="22" customFormat="1" ht="170" customHeight="1">
+      <c r="A13" s="22" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A14" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="9" customFormat="1" ht="19">
+      <c r="A15" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A22" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="22" customFormat="1" ht="87" customHeight="1">
+      <c r="A23" s="22" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A24" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="9" customFormat="1" ht="40">
+      <c r="A25" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="34">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>175</v>
+      </c>
+      <c r="C26" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="17">
+      <c r="A28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>162</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:XFD2"/>
+    <mergeCell ref="A13:XFD13"/>
+    <mergeCell ref="A23:XFD23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/products/identity-personalization/personalization 2.0/Combine Profile and Account/Information architecture/Prof & Acct. — Content inventory and information architecture.xlsx
+++ b/products/identity-personalization/personalization 2.0/Combine Profile and Account/Information architecture/Prof & Acct. — Content inventory and information architecture.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vacostraus/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCD0BEC-D87E-3146-B8CA-B2718199196B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664D2B54-8A06-734E-8EC0-23CD659B31BE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="25600" windowHeight="14660" activeTab="8" xr2:uid="{71A3B6E5-147C-D943-9295-451357BFED97}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14620" firstSheet="1" activeTab="11" xr2:uid="{71A3B6E5-147C-D943-9295-451357BFED97}"/>
   </bookViews>
   <sheets>
     <sheet name="Oct. '19 Content Inventory" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,10 @@
     <sheet name="Iteration 4" sheetId="7" r:id="rId6"/>
     <sheet name="Iteration 5" sheetId="8" r:id="rId7"/>
     <sheet name="Iteration 6" sheetId="9" r:id="rId8"/>
-    <sheet name="IA Proposal" sheetId="10" r:id="rId9"/>
+    <sheet name="Iteration 7" sheetId="11" r:id="rId9"/>
+    <sheet name="Iteration 8" sheetId="12" r:id="rId10"/>
+    <sheet name="IA Proposal" sheetId="10" r:id="rId11"/>
+    <sheet name="Personalization 3.0" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="224">
   <si>
     <t>Editable?</t>
   </si>
@@ -1031,16 +1034,6 @@
     <t>Phase 1: Update existing Profile; Remove Account</t>
   </si>
   <si>
-    <t>This involves:
-1. Visual update of Profile.
-2. Integration of the features currently on the Account page.
-3. Removal of "Account" from the navigation and My VA. "Profile" will remain in the navigation and in My VA.
-4. No other IA changes at this time.</t>
-  </si>
-  <si>
-    <t>MVP IA (Under Main Nav &gt; Profile)</t>
-  </si>
-  <si>
     <t>Direct Deposit Information</t>
   </si>
   <si>
@@ -1059,56 +1052,333 @@
     </r>
   </si>
   <si>
-    <t>(*Note: this only shows if someone has health care and has accepted T&amp;Cs(</t>
-  </si>
-  <si>
-    <t>Phase 2: Potentially having the Profile replace My VA</t>
+    <t>[other benefits for which we have enrollment info]</t>
+  </si>
+  <si>
+    <t>Disability</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PROPOSAL 7 for [Profile &amp; Settings; My VA; Whatever] |</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="18"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Italics = future feature</t>
+    </r>
+  </si>
+  <si>
+    <t>[Additional information]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Your health care </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>In a distant future where someone's full HC profile is on VA.gov and MHV is retired, Health care may warrant its own top-level section</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Health care</t>
+  </si>
+  <si>
+    <t>PROPOSAL 7 for [Profile &amp; Settings; My VA; Whatever]</t>
+  </si>
+  <si>
+    <t>Phase 2: Integration of future features</t>
   </si>
   <si>
     <t>This involves:
-1. Integration of benefit information into the profile. 
-2. Killing My VA in its current iteration.
-3. Replacing existing My VA with this new user profile.
-4. Referring to this new combined profile/account/benefit section as "My VA."
-This wouldn't occur until we remove the existing My VA. We'd integrate the existing My VA features, like updates and applications, elsewhere onto VA.gov.</t>
-  </si>
-  <si>
-    <t>MVP IA (Under Main Nav &gt; My VA)</t>
-  </si>
-  <si>
-    <t>[other benefits for which we have enrollment info]</t>
-  </si>
-  <si>
-    <t>Phase 3+: Additional features we're going to integrate into the new Profile/My VA</t>
-  </si>
-  <si>
-    <t>This involves:
-1. Integrating new features from eBenefits and elsewhere into this section.</t>
-  </si>
-  <si>
-    <t>Disability</t>
-  </si>
-  <si>
-    <t>Direct Deposit and Payments</t>
-  </si>
-  <si>
-    <t>Note: This only shows for people who have connected accounts</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Health care (will include medical T&amp;C)</t>
-  </si>
-  <si>
-    <t>You've accepted medical T&amp;C</t>
+1. Integrating new features from eBenefits and elsewhere into this section.
+2. Incorporating wayfinding throughout VA.gov --&gt; Does this involve nav updates? Where else can we incorporate wayfinding for new features.</t>
+  </si>
+  <si>
+    <t>Future IA w/ eBenefits features</t>
+  </si>
+  <si>
+    <t>Connected accounts (this should only show If someone has connected accounts)</t>
+  </si>
+  <si>
+    <t>Account security (Identity verification/2FA)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PROPOSAL 8 for [Profile &amp; Settings; My VA; Whatever] |</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="18"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Italics = future feature</t>
+    </r>
+  </si>
+  <si>
+    <t>Account security (identity verification and 2FA)</t>
+  </si>
+  <si>
+    <t>PROPOSAL 8 for [Profile &amp; Settings; My VA; Whatever]</t>
+  </si>
+  <si>
+    <t>Your preferred VAMC</t>
+  </si>
+  <si>
+    <t>Questions:
+- Are these the right terms for each section?
+- Do these grouping makes sense? Should we pull some features out into their own top level sections instead of trying to force groups (eg. Direct deposit and payment history; Notification preferences; Connected Accounts)?
+- Do we need to keep Identity verification/2FA in the nav, or should we pull those out into some sort of nav-agnostic display?
+- What should we rename this section? Should this be the new "My VA" long term?
+- What other long term changes should we make to the navigation, if any, to help with wayfinding?</t>
+  </si>
+  <si>
+    <t>MVP IA (Under Main Nav &gt; [new section name])</t>
+  </si>
+  <si>
+    <r>
+      <t>Your benefits</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (only shows if someone has benefits)</t>
+    </r>
+  </si>
+  <si>
+    <t>Disability (?)</t>
+  </si>
+  <si>
+    <t>Maybe records-related info? What records would we show/link to from profile?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This involves:
+1. Visual update of Profile.
+2. Integration of the features currently on the Account page.
+3. Integration of health care info into profile.
+4. Removal of "Account" from the navigation and My VA. "Profile" will remain in the navigation and in My VA.
+5. Revisit wayfinding throughout the rest of VA.gov. </t>
+  </si>
+  <si>
+    <t>Working backwards: Imagining Personalization 3.0 to help us plan Personalization 2.0</t>
+  </si>
+  <si>
+    <t>Personalization 3.0</t>
+  </si>
+  <si>
+    <t>Logged in portal IA (Potential URL: VA.gov/my-va. All URLs on this site would be VA.gov/my-va/[slug])</t>
+  </si>
+  <si>
+    <t>Personalization 3.0 will be a logged in portal that is almost entirely separate from the content site. Think about logging in to your health care or bank website to manage those accounts — you don't find your bank balance or health care plan with the rest of the marketing content, nor would you expect to. The logged in user's needs are fundamentally different than the new/logged out user's needs, and we should be treating those needs as such to match expectations and practices set by the private sector.
+This navigation of the logged in portal will be completely different from that of the main content site and will feature functionality that is relevant to managing the user's VA experience. We would have to make it clear how to switch between the content site and the logged in portal as needed, and we would link over to pages on the main site where it made sense.
+Also, this IA assumes that we have integrated all eBenefits content onto VA.gov. For health care content, we'd ideally have it living on VA.gov, but could also link over to MHV if we had to.</t>
+  </si>
+  <si>
+    <t>MAIN NAV</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">My Account </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(this is the dashboard/main landing page)</t>
+    </r>
+  </si>
+  <si>
+    <t>Enrollment information</t>
+  </si>
+  <si>
+    <t>Schedule an appointment</t>
+  </si>
+  <si>
+    <t>Secure messaging</t>
+  </si>
+  <si>
+    <t>Refill a prescription</t>
+  </si>
+  <si>
+    <t>Etc..</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">My Health </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(this assumes these tools live on VA.gov. if not, link over to MHV)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">My Benefits </t>
+  </si>
+  <si>
+    <t>Track claim and appeal status</t>
+  </si>
+  <si>
+    <t>Apply for health care (application could link over to content site, though in-progress application would be linked from portal)</t>
+  </si>
+  <si>
+    <t>Apply for disability benefits</t>
+  </si>
+  <si>
+    <t>Etc</t>
+  </si>
+  <si>
+    <t>GI bill balance</t>
+  </si>
+  <si>
+    <t>[Other tools]</t>
+  </si>
+  <si>
+    <t>[Other benefits and other enrollment info]</t>
+  </si>
+  <si>
+    <t>My DD214</t>
+  </si>
+  <si>
+    <t>Download VA letters</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">My Records </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Note: any tools that require login will live in the portal)</t>
+    </r>
+  </si>
+  <si>
+    <t>Get military records (may link out to content site or directly to milconnect)</t>
+  </si>
+  <si>
+    <t>Change your address</t>
+  </si>
+  <si>
+    <t>View VA payment history</t>
+  </si>
+  <si>
+    <t>Types of veteran ID cards (would link to content site)</t>
+  </si>
+  <si>
+    <t>Discharge upgrade (link to content site)</t>
+  </si>
+  <si>
+    <t>Apply for a home loan CoE (could link to content OR directly to tool, which would live on logged in portal if there was no logged out flow)</t>
+  </si>
+  <si>
+    <t>Search historical military records (links out)</t>
+  </si>
+  <si>
+    <t>UTILITY NAV</t>
+  </si>
+  <si>
+    <t>Set up 2FA</t>
+  </si>
+  <si>
+    <t>My Profile</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>Notification center</t>
+  </si>
+  <si>
+    <t>[Updates]</t>
+  </si>
+  <si>
+    <t>Go back to the main VA website →</t>
+  </si>
+  <si>
+    <t>Personalized menu</t>
+  </si>
+  <si>
+    <t>Logout</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1199,8 +1469,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1237,6 +1541,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1247,10 +1563,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1289,8 +1606,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1605,7 +1940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA5596D-0DF4-7C49-B55A-E563ED51A2AA}">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -2031,12 +2366,1013 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8D3FBB7-135D-6141-9C5F-ECBD9619C54D}">
+  <dimension ref="A1:C95"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A1" s="17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A2" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A3" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="13"/>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="13"/>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="13"/>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="13"/>
+      <c r="B7" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A8" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="13"/>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="13"/>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="13"/>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="13"/>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="13"/>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="13"/>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="13"/>
+      <c r="B16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="13"/>
+      <c r="B17" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="13"/>
+      <c r="B18" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="13"/>
+      <c r="B19" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A20" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="13"/>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="13"/>
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="13"/>
+      <c r="B23" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" s="16" customFormat="1" ht="21" customHeight="1">
+      <c r="A24" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" s="16" customFormat="1" ht="21" customHeight="1">
+      <c r="A26" s="16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" s="16" customFormat="1" ht="21" customHeight="1">
+      <c r="A28" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="13"/>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="13"/>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="13"/>
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="13"/>
+      <c r="B32" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="13"/>
+      <c r="B33" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" s="16" customFormat="1" ht="21" customHeight="1">
+      <c r="A34" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A36" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A37" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="13"/>
+      <c r="B38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="13"/>
+      <c r="B39" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="13"/>
+      <c r="B40" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15" customHeight="1">
+      <c r="A41" s="13"/>
+      <c r="B41" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="13"/>
+      <c r="B42" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="13"/>
+      <c r="B43" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="13"/>
+      <c r="B44" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A45" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="13"/>
+      <c r="B46" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="13"/>
+      <c r="B47" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A48" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="13"/>
+      <c r="B49" s="15"/>
+    </row>
+    <row r="50" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A50" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" s="15" customFormat="1">
+      <c r="A51" s="19"/>
+      <c r="B51" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="13"/>
+      <c r="B52" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="13"/>
+      <c r="B53" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" s="20" customFormat="1" ht="37" customHeight="1">
+      <c r="A56" s="20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A58" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A59" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A60" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="13"/>
+      <c r="B61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="13"/>
+      <c r="B62" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="13"/>
+      <c r="B63" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="13"/>
+      <c r="B64" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A65" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="13"/>
+      <c r="B66" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="13"/>
+      <c r="B67" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="13"/>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="13"/>
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="13"/>
+      <c r="B70" s="13"/>
+      <c r="C70" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="13"/>
+      <c r="B71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="13"/>
+      <c r="B72" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="13"/>
+      <c r="B73" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="13"/>
+      <c r="B74" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="13"/>
+      <c r="B75" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="13"/>
+      <c r="B76" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A77" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="13"/>
+      <c r="B78" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="13"/>
+      <c r="B79" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="13"/>
+      <c r="B80" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" s="16" customFormat="1" ht="21" customHeight="1">
+      <c r="A81" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="13"/>
+      <c r="B82" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="13"/>
+      <c r="B83" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="13"/>
+      <c r="B84" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="13"/>
+      <c r="B85" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="13"/>
+      <c r="B86" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A87" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A88" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="13"/>
+      <c r="B89" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="13"/>
+      <c r="B90" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="15" customHeight="1">
+      <c r="A91" s="13"/>
+      <c r="B91" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="15" customHeight="1">
+      <c r="A92" s="13"/>
+      <c r="B92" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="13"/>
+      <c r="B93" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A94" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" s="15" customFormat="1">
+      <c r="A95" s="19"/>
+      <c r="B95" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF35EA3-E63B-664E-AE2A-8DC876D8E757}">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="31.83203125" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="43.5" customWidth="1"/>
+    <col min="4" max="4" width="26.83203125" customWidth="1"/>
+    <col min="5" max="5" width="28.5" customWidth="1"/>
+    <col min="6" max="6" width="32" customWidth="1"/>
+    <col min="7" max="7" width="30.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="24" customFormat="1" ht="183" customHeight="1">
+      <c r="A2" s="24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="5" customFormat="1" ht="20">
+      <c r="A4" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A10" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="24" customFormat="1" ht="130" customHeight="1">
+      <c r="A11" s="24" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A12" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="5" customFormat="1" ht="20">
+      <c r="A13" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="1" customFormat="1" ht="17">
+      <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="1" customFormat="1" ht="17">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="1" customFormat="1" ht="17">
+      <c r="A16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="1" customFormat="1" ht="17">
+      <c r="A17" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="1" customFormat="1" ht="17">
+      <c r="A18" s="23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="1" customFormat="1" ht="17">
+      <c r="A19" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" s="1" customFormat="1" ht="17">
+      <c r="A20" s="23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" s="24" customFormat="1" ht="172" customHeight="1">
+      <c r="A23" s="24" t="s">
+        <v>179</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A23:XFD23"/>
+    <mergeCell ref="A2:XFD2"/>
+    <mergeCell ref="A11:XFD11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AAD3BAC-3A42-4940-BCCA-DE325DEAD82D}">
+  <dimension ref="A1:O57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="21.83203125" customWidth="1"/>
+    <col min="2" max="3" width="21.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="28" customFormat="1" ht="36" customHeight="1">
+      <c r="A1" s="27" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="29" customFormat="1" ht="31" customHeight="1">
+      <c r="A2" s="30" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="253" customHeight="1">
+      <c r="A3" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+    </row>
+    <row r="4" spans="1:15" s="31" customFormat="1" ht="30" customHeight="1">
+      <c r="A4" s="31" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="32" customFormat="1" ht="24" customHeight="1">
+      <c r="A5" s="32" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="13" customFormat="1" ht="20" customHeight="1">
+      <c r="A6" s="33" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="13" customFormat="1" ht="19">
+      <c r="A7" s="33" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="21" customFormat="1" ht="19">
+      <c r="A8" s="34"/>
+      <c r="B8" s="21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="B9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="B10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="B11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="B13" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="13" customFormat="1" ht="19">
+      <c r="A14" s="33" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="B15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="C16" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="B20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="C21" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="C22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="13" customFormat="1" ht="19">
+      <c r="A24" s="33" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="B27" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="B28" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="B29" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="B30" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="B31" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="B32" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="B33" t="s">
+        <v>214</v>
+      </c>
+      <c r="F33" s="35"/>
+    </row>
+    <row r="34" spans="1:6" s="32" customFormat="1" ht="24" customHeight="1">
+      <c r="A34" s="32" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="13" customFormat="1" ht="20" customHeight="1">
+      <c r="A35" s="33" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="B36" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="17">
+      <c r="C37" s="36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="17" customHeight="1">
+      <c r="C38" s="36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="17">
+      <c r="C39" s="36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="17">
+      <c r="C40" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="F40" s="35"/>
+    </row>
+    <row r="41" spans="1:6" ht="17">
+      <c r="C41" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="F41" s="35"/>
+    </row>
+    <row r="42" spans="1:6" ht="34">
+      <c r="C42" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="F42" s="35"/>
+    </row>
+    <row r="43" spans="1:6" ht="17">
+      <c r="C43" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="F43" s="35"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="B44" t="s">
+        <v>218</v>
+      </c>
+      <c r="F44" s="35"/>
+    </row>
+    <row r="45" spans="1:6" ht="17">
+      <c r="C45" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="F45" s="35"/>
+    </row>
+    <row r="46" spans="1:6" ht="17">
+      <c r="C46" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="F46" s="35"/>
+    </row>
+    <row r="47" spans="1:6" ht="17">
+      <c r="C47" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="F47" s="35"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="B48" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" s="13" customFormat="1" ht="20" customHeight="1">
+      <c r="A49" s="33" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="17">
+      <c r="B50" s="36" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" s="13" customFormat="1" ht="20" customHeight="1">
+      <c r="A51" s="33" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="17" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:J3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B964C80-B7A2-4E46-A6D8-CC20028EE4D9}">
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2442,7 +3778,7 @@
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD7"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2673,8 +4009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BF5BAA-D435-A24C-98B8-56DB67A65D3E}">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3099,7 +4435,7 @@
     <row r="20" spans="1:2">
       <c r="A20" s="13"/>
       <c r="B20" s="11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
@@ -3516,8 +4852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{211A2093-B4E5-1145-9378-B14F060EC683}">
   <dimension ref="A1:C95"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3636,7 +4972,7 @@
     <row r="20" spans="1:2">
       <c r="A20" s="13"/>
       <c r="B20" s="11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
@@ -4033,8 +5369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F72B0A5-EFBD-C540-8D49-B5EF9AD59063}">
   <dimension ref="A1:C96"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4153,7 +5489,7 @@
     <row r="20" spans="1:2">
       <c r="A20" s="13"/>
       <c r="B20" s="11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
@@ -4563,220 +5899,524 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF35EA3-E63B-664E-AE2A-8DC876D8E757}">
-  <dimension ref="A1:F31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8818820B-A17D-E240-AFBC-2F02D2D3C860}">
+  <dimension ref="A1:C96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="31.83203125" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" customWidth="1"/>
-    <col min="3" max="3" width="31.1640625" customWidth="1"/>
-    <col min="4" max="4" width="26.83203125" customWidth="1"/>
-    <col min="5" max="5" width="28.5" customWidth="1"/>
-    <col min="6" max="6" width="32" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="22" customFormat="1" ht="140" customHeight="1">
-      <c r="A2" s="22" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="8" t="s">
+      <c r="A1" s="17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A2" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A3" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="13"/>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="13"/>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="13"/>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="13"/>
+      <c r="B7" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="13"/>
+      <c r="B8" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A9" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="13"/>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="13"/>
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="13"/>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="13"/>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="13"/>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="13"/>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="13"/>
+      <c r="B17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="13"/>
+      <c r="B18" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="13"/>
+      <c r="B19" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="13"/>
+      <c r="B20" s="11" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="9" customFormat="1" ht="19">
-      <c r="A4" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>176</v>
-      </c>
-      <c r="B10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A12" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="22" customFormat="1" ht="170" customHeight="1">
-      <c r="A13" s="22" t="s">
+    <row r="21" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A21" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="13"/>
+      <c r="B22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="13"/>
+      <c r="B23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="13"/>
+      <c r="B24" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" s="16" customFormat="1" ht="21" customHeight="1">
+      <c r="A25" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" s="16" customFormat="1" ht="21" customHeight="1">
+      <c r="A27" s="16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" s="16" customFormat="1" ht="21" customHeight="1">
+      <c r="A29" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="13"/>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="13"/>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="13"/>
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="13"/>
+      <c r="B33" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="13"/>
+      <c r="B34" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" s="16" customFormat="1" ht="21" customHeight="1">
+      <c r="A35" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A37" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="13"/>
+      <c r="B38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="13"/>
+      <c r="B39" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="13"/>
+      <c r="B40" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="13"/>
+      <c r="B41" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="13"/>
+      <c r="B42" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="13"/>
+      <c r="B43" s="15" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="9" customFormat="1" ht="19">
-      <c r="A15" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A22" s="7" t="s">
+    <row r="44" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A44" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A45" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="13"/>
+      <c r="B46" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="13"/>
+      <c r="B47" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A48" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="13"/>
+      <c r="B49" s="15"/>
+    </row>
+    <row r="50" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A50" s="18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="13"/>
+    </row>
+    <row r="52" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A52" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="13"/>
+    </row>
+    <row r="54" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A54" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" s="20" customFormat="1" ht="37" customHeight="1">
+      <c r="A57" s="20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A59" s="7" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="22" customFormat="1" ht="87" customHeight="1">
-      <c r="A23" s="22" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A24" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="9" customFormat="1" ht="40">
-      <c r="A25" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="34">
-      <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" t="s">
-        <v>175</v>
-      </c>
-      <c r="C26" t="s">
+    <row r="60" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A60" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A61" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="13"/>
+      <c r="B62" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="13"/>
+      <c r="B63" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="13"/>
+      <c r="B64" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="13"/>
+      <c r="B65" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="13"/>
+      <c r="B66" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="13"/>
+      <c r="B67" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A68" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="13"/>
+      <c r="B69" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="13"/>
+      <c r="B70" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="13"/>
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="13"/>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="13"/>
+      <c r="B73" s="13"/>
+      <c r="C73" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="13"/>
+      <c r="B74" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="13"/>
+      <c r="B75" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="13"/>
+      <c r="B76" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="13"/>
+      <c r="B77" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="13"/>
+      <c r="B78" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A79" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="13"/>
+      <c r="B80" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="13"/>
+      <c r="B81" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="13"/>
+      <c r="B82" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" s="16" customFormat="1" ht="21" customHeight="1">
+      <c r="A83" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="C27" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="17">
-      <c r="A28" t="s">
-        <v>80</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>162</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="15" t="s">
-        <v>150</v>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="13"/>
+      <c r="B84" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="13"/>
+      <c r="B85" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="13"/>
+      <c r="B86" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="13"/>
+      <c r="B87" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="13"/>
+      <c r="B88" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A89" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A90" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="13"/>
+      <c r="B91" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="13"/>
+      <c r="B92" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="13"/>
+      <c r="B93" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="13"/>
+      <c r="B94" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="13"/>
+      <c r="B95" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A96" s="8" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:XFD2"/>
-    <mergeCell ref="A13:XFD13"/>
-    <mergeCell ref="A23:XFD23"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/products/identity-personalization/personalization 2.0/Combine Profile and Account/Information architecture/Prof & Acct. — Content inventory and information architecture.xlsx
+++ b/products/identity-personalization/personalization 2.0/Combine Profile and Account/Information architecture/Prof & Acct. — Content inventory and information architecture.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vacostraus/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46AB25E9-DBA1-B746-BA6E-C2301729CA04}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138D1C80-56DB-9247-9853-FEF34E30A5D6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14620" activeTab="2" xr2:uid="{71A3B6E5-147C-D943-9295-451357BFED97}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14620" activeTab="4" xr2:uid="{71A3B6E5-147C-D943-9295-451357BFED97}"/>
   </bookViews>
   <sheets>
     <sheet name="Oct. '19 Content Inventory" sheetId="1" r:id="rId1"/>
     <sheet name="eBenefits content" sheetId="2" r:id="rId2"/>
     <sheet name="Initial approach proposal" sheetId="10" r:id="rId3"/>
     <sheet name="Revised approach proposal" sheetId="13" r:id="rId4"/>
+    <sheet name="Profile 2.0 IA" sheetId="14" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="193">
   <si>
     <t>Editable?</t>
   </si>
@@ -690,22 +691,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Connected accounts </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Note: this only shows for people who have connected accounts)</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Your Profile </t>
   </si>
   <si>
@@ -751,6 +736,21 @@
 3. Show in-progress applications.
 4. Show select important info for benefits (eg. your next upcoming health care appointment).
 5. How to get started with new benefits (another phase or project: more robust benefit recommendations).</t>
+  </si>
+  <si>
+    <t>Profile 2.0 MVP</t>
+  </si>
+  <si>
+    <t>Profile 2.0 with additional future features (italics = future feature)</t>
+  </si>
+  <si>
+    <t>Connected accounts (Note: this only shows for people who have connected accounts)</t>
+  </si>
+  <si>
+    <t>Personal information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personal information </t>
   </si>
 </sst>
 </file>
@@ -937,7 +937,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -965,7 +965,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1886,8 +1885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF35EA3-E63B-664E-AE2A-8DC876D8E757}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1906,8 +1905,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="39" customFormat="1" ht="183" customHeight="1">
-      <c r="A2" s="39" t="s">
+    <row r="2" spans="1:4" s="38" customFormat="1" ht="183" customHeight="1">
+      <c r="A2" s="38" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1937,7 +1936,7 @@
       <c r="C5" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="22" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1945,7 +1944,7 @@
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1964,8 +1963,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="39" customFormat="1" ht="130" customHeight="1">
-      <c r="A11" s="39" t="s">
+    <row r="11" spans="1:4" s="38" customFormat="1" ht="130" customHeight="1">
+      <c r="A11" s="38" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2000,10 +1999,10 @@
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="20" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2011,23 +2010,23 @@
       <c r="A16" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="21" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="1" customFormat="1" ht="17">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="21" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="1" customFormat="1" ht="17">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="20" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2037,12 +2036,12 @@
       </c>
     </row>
     <row r="20" spans="1:2" s="1" customFormat="1" ht="17">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="20" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:2" s="39" customFormat="1" ht="172" customHeight="1">
-      <c r="A23" s="39" t="s">
+    <row r="23" spans="1:2" s="38" customFormat="1" ht="172" customHeight="1">
+      <c r="A23" s="38" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2058,10 +2057,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AAD3BAC-3A42-4940-BCCA-DE325DEAD82D}">
-  <dimension ref="A1:O116"/>
+  <dimension ref="A1:O115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2074,55 +2073,55 @@
     <col min="6" max="6" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="25" customFormat="1" ht="36" customHeight="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:15" s="24" customFormat="1" ht="36" customHeight="1">
+      <c r="A1" s="23" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="26" customFormat="1" ht="31" customHeight="1">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:15" s="25" customFormat="1" ht="31" customHeight="1">
+      <c r="A2" s="26" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="253" customHeight="1">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-    </row>
-    <row r="4" spans="1:15" s="28" customFormat="1" ht="30" customHeight="1">
-      <c r="A4" s="28" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+    </row>
+    <row r="4" spans="1:15" s="27" customFormat="1" ht="30" customHeight="1">
+      <c r="A4" s="27" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="29" customFormat="1" ht="24" customHeight="1">
-      <c r="A5" s="29" t="s">
+    <row r="5" spans="1:15" s="28" customFormat="1" ht="24" customHeight="1">
+      <c r="A5" s="28" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="33" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="29" t="s">
         <v>156</v>
       </c>
     </row>
@@ -2130,21 +2129,21 @@
       <c r="B8" t="s">
         <v>157</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="33" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="13" customFormat="1" ht="19">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="29" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="19" customFormat="1" ht="19">
-      <c r="A10" s="31"/>
-      <c r="B10" s="19" t="s">
+    <row r="10" spans="1:15" s="18" customFormat="1" ht="19">
+      <c r="A10" s="30"/>
+      <c r="B10" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="34" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2152,7 +2151,7 @@
       <c r="B11" t="s">
         <v>124</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="34" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2160,7 +2159,7 @@
       <c r="B12" t="s">
         <v>152</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="35" t="s">
         <v>159</v>
       </c>
     </row>
@@ -2168,7 +2167,7 @@
       <c r="B13" t="s">
         <v>125</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="35" t="s">
         <v>159</v>
       </c>
     </row>
@@ -2176,7 +2175,7 @@
       <c r="B14" t="s">
         <v>126</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="36" t="s">
         <v>161</v>
       </c>
     </row>
@@ -2184,7 +2183,7 @@
       <c r="B15" t="s">
         <v>127</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="36" t="s">
         <v>161</v>
       </c>
     </row>
@@ -2194,7 +2193,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" s="13" customFormat="1" ht="19">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="29" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2207,7 +2206,7 @@
       <c r="C19" t="s">
         <v>133</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="36" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2215,7 +2214,7 @@
       <c r="C20" t="s">
         <v>131</v>
       </c>
-      <c r="D20" s="35" t="s">
+      <c r="D20" s="34" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2223,7 +2222,7 @@
       <c r="C21" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="35" t="s">
         <v>159</v>
       </c>
     </row>
@@ -2231,7 +2230,7 @@
       <c r="C22" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="36" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2244,7 +2243,7 @@
       <c r="C24" t="s">
         <v>134</v>
       </c>
-      <c r="D24" s="35" t="s">
+      <c r="D24" s="34" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2262,7 +2261,7 @@
       <c r="C27" t="s">
         <v>170</v>
       </c>
-      <c r="D27" s="35" t="s">
+      <c r="D27" s="34" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2270,7 +2269,7 @@
       <c r="C28" t="s">
         <v>131</v>
       </c>
-      <c r="D28" s="35" t="s">
+      <c r="D28" s="34" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2278,7 +2277,7 @@
       <c r="C29" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="37" t="s">
+      <c r="D29" s="36" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2291,7 +2290,7 @@
       <c r="C31" t="s">
         <v>171</v>
       </c>
-      <c r="D31" s="35" t="s">
+      <c r="D31" s="34" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2299,7 +2298,7 @@
       <c r="C32" t="s">
         <v>172</v>
       </c>
-      <c r="D32" s="37" t="s">
+      <c r="D32" s="36" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2307,12 +2306,12 @@
       <c r="B33" t="s">
         <v>136</v>
       </c>
-      <c r="D33" s="37" t="s">
+      <c r="D33" s="36" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="13" customFormat="1" ht="19">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="29" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2320,7 +2319,7 @@
       <c r="B35" t="s">
         <v>138</v>
       </c>
-      <c r="D35" s="35" t="s">
+      <c r="D35" s="34" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2328,7 +2327,7 @@
       <c r="B36" t="s">
         <v>139</v>
       </c>
-      <c r="D36" s="35" t="s">
+      <c r="D36" s="34" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2336,7 +2335,7 @@
       <c r="B37" t="s">
         <v>155</v>
       </c>
-      <c r="D37" s="35" t="s">
+      <c r="D37" s="34" t="s">
         <v>167</v>
       </c>
     </row>
@@ -2344,7 +2343,7 @@
       <c r="B38" t="s">
         <v>153</v>
       </c>
-      <c r="D38" s="35" t="s">
+      <c r="D38" s="34" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2352,7 +2351,7 @@
       <c r="B39" t="s">
         <v>140</v>
       </c>
-      <c r="D39" s="35" t="s">
+      <c r="D39" s="34" t="s">
         <v>168</v>
       </c>
     </row>
@@ -2360,7 +2359,7 @@
       <c r="B40" t="s">
         <v>141</v>
       </c>
-      <c r="D40" s="37" t="s">
+      <c r="D40" s="36" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2368,7 +2367,7 @@
       <c r="B41" t="s">
         <v>154</v>
       </c>
-      <c r="D41" s="37" t="s">
+      <c r="D41" s="36" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2376,18 +2375,18 @@
       <c r="B42" t="s">
         <v>142</v>
       </c>
-      <c r="D42" s="35" t="s">
+      <c r="D42" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="F42" s="32"/>
-    </row>
-    <row r="43" spans="1:6" s="29" customFormat="1" ht="24" customHeight="1">
-      <c r="A43" s="29" t="s">
+      <c r="F42" s="31"/>
+    </row>
+    <row r="43" spans="1:6" s="28" customFormat="1" ht="24" customHeight="1">
+      <c r="A43" s="28" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A44" s="30" t="s">
+      <c r="A44" s="29" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2395,93 +2394,93 @@
       <c r="B45" t="s">
         <v>145</v>
       </c>
-      <c r="D45" s="34" t="s">
+      <c r="D45" s="33" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="17">
-      <c r="C46" s="33" t="s">
+      <c r="C46" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D46" s="35" t="s">
+      <c r="D46" s="34" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="17" customHeight="1">
-      <c r="C47" s="33" t="s">
+      <c r="C47" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D47" s="35" t="s">
+      <c r="D47" s="34" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="17">
-      <c r="C48" s="33" t="s">
+      <c r="C48" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="D48" s="35" t="s">
+      <c r="D48" s="34" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="17">
-      <c r="C49" s="33" t="s">
+      <c r="C49" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="D49" s="37" t="s">
+      <c r="D49" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="F49" s="32"/>
+      <c r="F49" s="31"/>
     </row>
     <row r="50" spans="1:15" ht="17">
-      <c r="C50" s="33" t="s">
+      <c r="C50" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="D50" s="37" t="s">
+      <c r="D50" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="F50" s="32"/>
+      <c r="F50" s="31"/>
     </row>
     <row r="51" spans="1:15" ht="17">
-      <c r="C51" s="33" t="s">
+      <c r="C51" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="D51" s="35" t="s">
+      <c r="D51" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="F51" s="32"/>
+      <c r="F51" s="31"/>
     </row>
     <row r="52" spans="1:15">
       <c r="B52" t="s">
         <v>146</v>
       </c>
-      <c r="F52" s="32"/>
+      <c r="F52" s="31"/>
     </row>
     <row r="53" spans="1:15" ht="17">
-      <c r="C53" s="33" t="s">
+      <c r="C53" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="D53" s="35" t="s">
+      <c r="D53" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="F53" s="32"/>
+      <c r="F53" s="31"/>
     </row>
     <row r="54" spans="1:15" ht="17">
-      <c r="C54" s="33" t="s">
+      <c r="C54" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="D54" s="36" t="s">
+      <c r="D54" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="F54" s="32"/>
+      <c r="F54" s="31"/>
     </row>
     <row r="55" spans="1:15" ht="17">
-      <c r="C55" s="33" t="s">
+      <c r="C55" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="D55" s="36" t="s">
+      <c r="D55" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="F55" s="32"/>
+      <c r="F55" s="31"/>
     </row>
     <row r="56" spans="1:15">
       <c r="B56" t="s">
@@ -2489,69 +2488,69 @@
       </c>
     </row>
     <row r="57" spans="1:15" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A57" s="30" t="s">
+      <c r="A57" s="29" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="17">
-      <c r="B58" s="33" t="s">
+      <c r="B58" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="D58" s="34" t="s">
+      <c r="D58" s="33" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="59" spans="1:15" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A59" s="30" t="s">
+      <c r="A59" s="29" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="62" spans="1:15" s="26" customFormat="1" ht="31" customHeight="1">
-      <c r="A62" s="27" t="s">
+    <row r="62" spans="1:15" s="25" customFormat="1" ht="31" customHeight="1">
+      <c r="A62" s="26" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="253" customHeight="1">
-      <c r="A63" s="39" t="s">
+      <c r="A63" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="B63" s="39"/>
-      <c r="C63" s="39"/>
-      <c r="D63" s="39"/>
-      <c r="E63" s="39"/>
-      <c r="F63" s="39"/>
-      <c r="G63" s="39"/>
-      <c r="H63" s="39"/>
-      <c r="I63" s="39"/>
-      <c r="J63" s="39"/>
-      <c r="K63" s="20"/>
-      <c r="L63" s="20"/>
-      <c r="M63" s="20"/>
-      <c r="N63" s="20"/>
-      <c r="O63" s="20"/>
-    </row>
-    <row r="65" spans="1:10" s="28" customFormat="1" ht="30" customHeight="1">
-      <c r="A65" s="28" t="s">
+      <c r="B63" s="38"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="38"/>
+      <c r="E63" s="38"/>
+      <c r="F63" s="38"/>
+      <c r="G63" s="38"/>
+      <c r="H63" s="38"/>
+      <c r="I63" s="38"/>
+      <c r="J63" s="38"/>
+      <c r="K63" s="19"/>
+      <c r="L63" s="19"/>
+      <c r="M63" s="19"/>
+      <c r="N63" s="19"/>
+      <c r="O63" s="19"/>
+    </row>
+    <row r="65" spans="1:10" s="27" customFormat="1" ht="30" customHeight="1">
+      <c r="A65" s="27" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="157" customHeight="1">
-      <c r="A66" s="39" t="s">
-        <v>183</v>
-      </c>
-      <c r="B66" s="39"/>
-      <c r="C66" s="39"/>
-      <c r="D66" s="39"/>
-      <c r="E66" s="39"/>
-      <c r="F66" s="39"/>
-      <c r="G66" s="39"/>
-      <c r="H66" s="39"/>
-      <c r="I66" s="39"/>
-      <c r="J66" s="39"/>
+      <c r="A66" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="B66" s="38"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="38"/>
+      <c r="E66" s="38"/>
+      <c r="F66" s="38"/>
+      <c r="G66" s="38"/>
+      <c r="H66" s="38"/>
+      <c r="I66" s="38"/>
+      <c r="J66" s="38"/>
     </row>
     <row r="67" spans="1:10" s="8" customFormat="1" ht="30" customHeight="1">
       <c r="A67" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2563,13 +2562,13 @@
     <row r="69" spans="1:10">
       <c r="A69" s="13"/>
       <c r="B69" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="13"/>
       <c r="B70" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -2580,18 +2579,18 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="13"/>
-      <c r="B72" s="38" t="s">
-        <v>186</v>
+      <c r="B72" s="37" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="73" spans="1:10" s="8" customFormat="1" ht="30" customHeight="1">
       <c r="A73" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="74" spans="1:10" s="9" customFormat="1" ht="21" customHeight="1">
       <c r="A74" s="9" t="s">
-        <v>99</v>
+        <v>192</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -2720,124 +2719,591 @@
     </row>
     <row r="96" spans="1:3">
       <c r="B96" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" s="16" customFormat="1" ht="21" customHeight="1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" s="16" customFormat="1" ht="21" customHeight="1">
       <c r="A97" s="16" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:10">
       <c r="B98" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" s="16" customFormat="1" ht="21" customHeight="1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" s="16" customFormat="1" ht="21" customHeight="1">
       <c r="A99" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:10">
       <c r="A100" s="13"/>
       <c r="B100" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:10">
       <c r="A101" s="13"/>
       <c r="B101" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:10">
       <c r="A102" s="13"/>
       <c r="B102" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:10">
       <c r="A103" s="13"/>
       <c r="B103" s="11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:10">
       <c r="A104" s="13"/>
       <c r="B104" s="11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:10">
       <c r="A105" s="13"/>
       <c r="B105" s="11" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="106" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A106" s="17" t="s">
+    <row r="106" spans="1:10" s="16" customFormat="1" ht="21" customHeight="1">
+      <c r="A106" s="16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="107" spans="1:2" s="15" customFormat="1">
-      <c r="A107" s="18"/>
+    <row r="107" spans="1:10" s="15" customFormat="1">
+      <c r="A107" s="17"/>
       <c r="B107" s="14"/>
     </row>
-    <row r="108" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A108" s="17" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
+    <row r="108" spans="1:10" s="16" customFormat="1" ht="21" customHeight="1">
+      <c r="A108" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="13"/>
       <c r="B109" s="14"/>
     </row>
-    <row r="112" spans="1:2" s="28" customFormat="1" ht="30" customHeight="1">
-      <c r="A112" s="28" t="s">
+    <row r="111" spans="1:10" s="27" customFormat="1" ht="30" customHeight="1">
+      <c r="A111" s="27" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="157" customHeight="1">
+      <c r="A112" s="38" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" ht="157" customHeight="1">
-      <c r="A113" s="39" t="s">
-        <v>185</v>
-      </c>
-      <c r="B113" s="39"/>
-      <c r="C113" s="39"/>
-      <c r="D113" s="39"/>
-      <c r="E113" s="39"/>
-      <c r="F113" s="39"/>
-      <c r="G113" s="39"/>
-      <c r="H113" s="39"/>
-      <c r="I113" s="39"/>
-      <c r="J113" s="39"/>
-    </row>
-    <row r="115" spans="1:10" s="28" customFormat="1" ht="30" customHeight="1">
-      <c r="A115" s="28" t="s">
+      <c r="B112" s="38"/>
+      <c r="C112" s="38"/>
+      <c r="D112" s="38"/>
+      <c r="E112" s="38"/>
+      <c r="F112" s="38"/>
+      <c r="G112" s="38"/>
+      <c r="H112" s="38"/>
+      <c r="I112" s="38"/>
+      <c r="J112" s="38"/>
+    </row>
+    <row r="114" spans="1:10" s="27" customFormat="1" ht="30" customHeight="1">
+      <c r="A114" s="27" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="164" customHeight="1">
+      <c r="A115" s="38" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" ht="164" customHeight="1">
-      <c r="A116" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="B116" s="39"/>
-      <c r="C116" s="39"/>
-      <c r="D116" s="39"/>
-      <c r="E116" s="39"/>
-      <c r="F116" s="39"/>
-      <c r="G116" s="39"/>
-      <c r="H116" s="39"/>
-      <c r="I116" s="39"/>
-      <c r="J116" s="39"/>
+      <c r="B115" s="38"/>
+      <c r="C115" s="38"/>
+      <c r="D115" s="38"/>
+      <c r="E115" s="38"/>
+      <c r="F115" s="38"/>
+      <c r="G115" s="38"/>
+      <c r="H115" s="38"/>
+      <c r="I115" s="38"/>
+      <c r="J115" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A66:J66"/>
-    <mergeCell ref="A113:J113"/>
-    <mergeCell ref="A116:J116"/>
+    <mergeCell ref="A112:J112"/>
+    <mergeCell ref="A115:J115"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A63:J63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA14D25-4576-844C-9C7B-A2035BB27AFB}">
+  <dimension ref="A1:C80"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:2" s="25" customFormat="1" ht="31" customHeight="1">
+      <c r="A1" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A2" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="13"/>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="13"/>
+      <c r="B4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="13"/>
+      <c r="B5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="13"/>
+      <c r="B6" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="13"/>
+      <c r="B7" s="37" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A8" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A9" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="13"/>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="13"/>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="13"/>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="13"/>
+      <c r="B13" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A14" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="13"/>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="13"/>
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="13"/>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="13"/>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="13"/>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="13"/>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="13"/>
+      <c r="B22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="13"/>
+      <c r="B23" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="13"/>
+      <c r="B24" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="13"/>
+      <c r="B25" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A26" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="13"/>
+      <c r="B27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="13"/>
+      <c r="B28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="13"/>
+      <c r="B29" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="16" customFormat="1" ht="21" customHeight="1">
+      <c r="A30" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="13"/>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="13"/>
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="13"/>
+      <c r="B33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="13"/>
+      <c r="B34" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="13"/>
+      <c r="B35" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="13"/>
+      <c r="B36" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" s="16" customFormat="1" ht="21" customHeight="1">
+      <c r="A37" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" s="25" customFormat="1" ht="31" customHeight="1">
+      <c r="A39" s="26" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A40" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="13"/>
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="13"/>
+      <c r="B42" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="13"/>
+      <c r="B43" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="13"/>
+      <c r="B44" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="13"/>
+      <c r="B45" s="37" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A46" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A47" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="13"/>
+      <c r="B48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="13"/>
+      <c r="B49" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="13"/>
+      <c r="B50" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="13"/>
+      <c r="B51" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A52" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="13"/>
+      <c r="B53" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="13"/>
+      <c r="B54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="13"/>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="13"/>
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="13"/>
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="13"/>
+      <c r="B58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="13"/>
+      <c r="B59" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="13"/>
+      <c r="B60" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="13"/>
+      <c r="B61" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="13"/>
+      <c r="B62" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A63" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="13"/>
+      <c r="B64" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="13"/>
+      <c r="B65" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="13"/>
+      <c r="B66" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" s="16" customFormat="1" ht="21" customHeight="1">
+      <c r="A67" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="B68" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" s="16" customFormat="1" ht="21" customHeight="1">
+      <c r="A69" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="B70" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" s="16" customFormat="1" ht="21" customHeight="1">
+      <c r="A71" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="13"/>
+      <c r="B72" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="13"/>
+      <c r="B73" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="13"/>
+      <c r="B74" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="13"/>
+      <c r="B75" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="13"/>
+      <c r="B76" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="13"/>
+      <c r="B77" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" s="16" customFormat="1" ht="21" customHeight="1">
+      <c r="A78" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" s="15" customFormat="1">
+      <c r="A79" s="17"/>
+      <c r="B79" s="14"/>
+    </row>
+    <row r="80" spans="1:2" s="16" customFormat="1" ht="21" customHeight="1">
+      <c r="A80" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/products/identity-personalization/personalization 2.0/Combine Profile and Account/Information architecture/Prof & Acct. — Content inventory and information architecture.xlsx
+++ b/products/identity-personalization/personalization 2.0/Combine Profile and Account/Information architecture/Prof & Acct. — Content inventory and information architecture.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vacostraus/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138D1C80-56DB-9247-9853-FEF34E30A5D6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B897E218-897D-D54F-94E9-EBBD7BE42ECB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14620" activeTab="4" xr2:uid="{71A3B6E5-147C-D943-9295-451357BFED97}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="25600" windowHeight="14620" activeTab="4" xr2:uid="{71A3B6E5-147C-D943-9295-451357BFED97}"/>
   </bookViews>
   <sheets>
     <sheet name="Oct. '19 Content Inventory" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="195">
   <si>
     <t>Editable?</t>
   </si>
@@ -751,6 +751,12 @@
   </si>
   <si>
     <t xml:space="preserve">Personal information </t>
+  </si>
+  <si>
+    <t>✓ You've accepted the medical terms &amp; conditions</t>
+  </si>
+  <si>
+    <t>Account security</t>
   </si>
 </sst>
 </file>
@@ -2059,7 +2065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AAD3BAC-3A42-4940-BCCA-DE325DEAD82D}">
   <dimension ref="A1:O115"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
+    <sheetView topLeftCell="A66" workbookViewId="0">
       <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
@@ -2843,10 +2849,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA14D25-4576-844C-9C7B-A2035BB27AFB}">
-  <dimension ref="A1:C80"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2879,231 +2885,229 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="13"/>
-      <c r="B6" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="13"/>
-      <c r="B7" s="37" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A8" s="8" t="s">
+    <row r="6" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A6" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
-      <c r="A9" s="9" t="s">
+    <row r="7" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A7" s="9" t="s">
         <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="13"/>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="13"/>
+      <c r="B9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="13"/>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="13"/>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="13"/>
-      <c r="B12" t="s">
-        <v>28</v>
+      <c r="B11" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A12" s="9" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="13"/>
-      <c r="B13" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" s="9" customFormat="1" ht="21" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>86</v>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="13"/>
+      <c r="B14" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="13"/>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="13"/>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="13"/>
-      <c r="B17" t="s">
-        <v>5</v>
+      <c r="B17" s="13"/>
+      <c r="C17" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="13"/>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" t="s">
-        <v>90</v>
+      <c r="B19" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="13"/>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="13"/>
-      <c r="B21" t="s">
-        <v>10</v>
+      <c r="B21" s="11" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="13"/>
-      <c r="B22" t="s">
-        <v>94</v>
+      <c r="B22" s="11" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="13"/>
       <c r="B23" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="13"/>
-      <c r="B24" s="11" t="s">
-        <v>77</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="9" customFormat="1" ht="21" customHeight="1">
+      <c r="A24" s="9" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="13"/>
-      <c r="B25" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="9" customFormat="1" ht="21" customHeight="1">
-      <c r="A26" s="9" t="s">
-        <v>96</v>
+      <c r="B25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="13"/>
+      <c r="B26" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="13"/>
-      <c r="B27" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="13"/>
-      <c r="B28" t="s">
-        <v>80</v>
+      <c r="B27" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="16" customFormat="1" ht="21" customHeight="1">
+      <c r="A28" s="9" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="13"/>
-      <c r="B29" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="16" customFormat="1" ht="21" customHeight="1">
-      <c r="A30" s="9" t="s">
-        <v>81</v>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="13"/>
+      <c r="B30" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="13"/>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="13"/>
-      <c r="B32" t="s">
-        <v>21</v>
+      <c r="B32" s="11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="13"/>
-      <c r="B33" t="s">
-        <v>22</v>
+      <c r="B33" s="11" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="13"/>
       <c r="B34" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="13"/>
-      <c r="B35" s="11" t="s">
-        <v>83</v>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" s="16" customFormat="1" ht="21" customHeight="1">
+      <c r="A35" s="9" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="13"/>
       <c r="B36" s="11" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" s="16" customFormat="1" ht="21" customHeight="1">
-      <c r="A37" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="13"/>
+      <c r="B37" s="37" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="B38" s="11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" s="16" customFormat="1" ht="21" customHeight="1">
+      <c r="A39" s="9" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="25" customFormat="1" ht="31" customHeight="1">
-      <c r="A39" s="26" t="s">
+    <row r="41" spans="1:2" s="25" customFormat="1" ht="31" customHeight="1">
+      <c r="A41" s="26" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A40" s="8" t="s">
+    <row r="42" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A42" s="8" t="s">
         <v>178</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="13"/>
-      <c r="B41" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="13"/>
-      <c r="B42" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="13"/>
       <c r="B43" t="s">
-        <v>180</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="13"/>
-      <c r="B44" s="11" t="s">
-        <v>93</v>
+      <c r="B44" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="13"/>
-      <c r="B45" s="37" t="s">
-        <v>185</v>
+      <c r="B45" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="46" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1">
@@ -3290,16 +3294,38 @@
       </c>
     </row>
     <row r="78" spans="1:2" s="16" customFormat="1" ht="21" customHeight="1">
-      <c r="A78" s="16" t="s">
+      <c r="A78" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="13"/>
+      <c r="B79" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="13"/>
+      <c r="B80" s="37" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="B81" s="11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" s="16" customFormat="1" ht="21" customHeight="1">
+      <c r="A82" s="16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="79" spans="1:2" s="15" customFormat="1">
-      <c r="A79" s="17"/>
-      <c r="B79" s="14"/>
-    </row>
-    <row r="80" spans="1:2" s="16" customFormat="1" ht="21" customHeight="1">
-      <c r="A80" s="9" t="s">
+    <row r="83" spans="1:2" s="15" customFormat="1">
+      <c r="A83" s="17"/>
+      <c r="B83" s="14"/>
+    </row>
+    <row r="84" spans="1:2" s="16" customFormat="1" ht="21" customHeight="1">
+      <c r="A84" s="9" t="s">
         <v>190</v>
       </c>
     </row>

--- a/products/identity-personalization/personalization 2.0/Combine Profile and Account/Information architecture/Prof & Acct. — Content inventory and information architecture.xlsx
+++ b/products/identity-personalization/personalization 2.0/Combine Profile and Account/Information architecture/Prof & Acct. — Content inventory and information architecture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vacostraus/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B897E218-897D-D54F-94E9-EBBD7BE42ECB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E16BF37-AD79-0446-B072-EB78EAC07EA8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="460" windowWidth="25600" windowHeight="14620" activeTab="4" xr2:uid="{71A3B6E5-147C-D943-9295-451357BFED97}"/>
   </bookViews>

--- a/products/identity-personalization/personalization 2.0/Combine Profile and Account/Information architecture/Prof & Acct. — Content inventory and information architecture.xlsx
+++ b/products/identity-personalization/personalization 2.0/Combine Profile and Account/Information architecture/Prof & Acct. — Content inventory and information architecture.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vacostraus/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E16BF37-AD79-0446-B072-EB78EAC07EA8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA9010A-57A0-8540-B8D9-BDB7CF3BFCAD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="25600" windowHeight="14620" activeTab="4" xr2:uid="{71A3B6E5-147C-D943-9295-451357BFED97}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14620" activeTab="5" xr2:uid="{71A3B6E5-147C-D943-9295-451357BFED97}"/>
   </bookViews>
   <sheets>
     <sheet name="Oct. '19 Content Inventory" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Initial approach proposal" sheetId="10" r:id="rId3"/>
     <sheet name="Revised approach proposal" sheetId="13" r:id="rId4"/>
     <sheet name="Profile 2.0 IA" sheetId="14" r:id="rId5"/>
+    <sheet name="Where we link to Account" sheetId="15" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="206">
   <si>
     <t>Editable?</t>
   </si>
@@ -758,12 +759,45 @@
   <si>
     <t>Account security</t>
   </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Recommendation</t>
+  </si>
+  <si>
+    <t>Page name</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>www.va.gov/my-va/</t>
+  </si>
+  <si>
+    <t>My VA</t>
+  </si>
+  <si>
+    <t>Remove button; update View Profile copy to include current account settings features</t>
+  </si>
+  <si>
+    <t>There is a "View your account settings" button under the "Manage your account" heading at the bottom of the page</t>
+  </si>
+  <si>
+    <t>www.va.gov/account/</t>
+  </si>
+  <si>
+    <t>The account settings page</t>
+  </si>
+  <si>
+    <t>Remove; all content is being moved to /profile; Nothing on here lives under /account anyway so we're good.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -867,6 +901,14 @@
       <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -943,7 +985,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1001,6 +1043,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2065,8 +2111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AAD3BAC-3A42-4940-BCCA-DE325DEAD82D}">
   <dimension ref="A1:O115"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63:J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2851,8 +2897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA14D25-4576-844C-9C7B-A2035BB27AFB}">
   <dimension ref="A1:C84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3010,7 +3056,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="13"/>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="39" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3332,4 +3378,71 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F4ADEEF-1694-304E-8BFB-06090EBA93A1}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="57.33203125" customWidth="1"/>
+    <col min="4" max="4" width="56" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="40" customFormat="1" ht="31" customHeight="1">
+      <c r="A1" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{34B9BFCA-D5F9-5443-B34C-2602C7CF8E30}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{28446540-AD04-7641-A29A-12FDE4B8F02E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>